--- a/calculations/Results.xlsx
+++ b/calculations/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/19493846/IdeaProjects/locks-benchmark/calculations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDD84DEE-5F1C-CD4E-9AE3-A3AC0C43EF6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E83CC0BA-17FD-474D-8ED8-A8A3D4313EB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="33">
   <si>
     <t>LOCK:  TAS_Result</t>
   </si>
@@ -70,12 +70,6 @@
     <t>Latency</t>
   </si>
   <si>
-    <t>Average throughput</t>
-  </si>
-  <si>
-    <t>Average latency</t>
-  </si>
-  <si>
     <t>LOCK:  TTAS_Result</t>
   </si>
   <si>
@@ -86,12 +80,6 @@
   </si>
   <si>
     <t>LOCK:  MCS_Result</t>
-  </si>
-  <si>
-    <t>Dirty average latency</t>
-  </si>
-  <si>
-    <t>Impact of critical section running time, %</t>
   </si>
   <si>
     <t xml:space="preserve">Part of critical section runtime in </t>
@@ -138,19 +126,40 @@
   <si>
     <t>Warm up impact (n=8, t=60s, type=Backoff)</t>
   </si>
+  <si>
+    <t>Impact of lock waiting time, %</t>
+  </si>
+  <si>
+    <t>Dirty latency</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0E+00"/>
+    <numFmt numFmtId="165" formatCode="0.000%"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -708,7 +717,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="130">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
@@ -759,74 +768,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
@@ -844,49 +792,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
@@ -919,57 +840,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -991,23 +861,140 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1050,7 +1037,7 @@
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -1136,7 +1123,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-4CBF-5F43-BA9F-C769FE5EFE7D}"/>
@@ -1227,7 +1214,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-4CBF-5F43-BA9F-C769FE5EFE7D}"/>
@@ -1318,7 +1305,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-4CBF-5F43-BA9F-C769FE5EFE7D}"/>
@@ -1409,7 +1396,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-4CBF-5F43-BA9F-C769FE5EFE7D}"/>
@@ -1500,7 +1487,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-4CBF-5F43-BA9F-C769FE5EFE7D}"/>
@@ -1887,9 +1874,19 @@
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.4994989639772395E-2"/>
+          <c:y val="8.9125981711103905E-2"/>
+          <c:w val="0.89610622614006019"/>
+          <c:h val="0.83539553840126435"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -1950,35 +1947,35 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Results!$AL$9:$AL$14</c:f>
+              <c:f>Results!$AN$9:$AN$14</c:f>
               <c:numCache>
-                <c:formatCode>0.0E+00</c:formatCode>
+                <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1.4886966034656264E-5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0757573121351435E-4</c:v>
+                  <c:v>0.86161408463858002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.0926411755849803E-4</c:v>
+                  <c:v>0.92886039800638664</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0107272782595861E-4</c:v>
+                  <c:v>0.96288212834776366</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.9754160269272021E-4</c:v>
+                  <c:v>0.97508631036304316</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.2735136011862162E-3</c:v>
+                  <c:v>0.9883103203446042</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-62E6-7F46-807B-B5068341DAC3}"/>
+              <c16:uniqueId val="{00000000-339E-E34E-8D0E-F7E1F9FB91FE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2041,35 +2038,35 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Results!$AL$24:$AL$29</c:f>
+              <c:f>Results!$AN$24:$AN$29</c:f>
               <c:numCache>
-                <c:formatCode>0.0E+00</c:formatCode>
+                <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1.4478604505135245E-5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.2477616519394961E-5</c:v>
+                  <c:v>0.80023343481141129</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.5521344662828086E-5</c:v>
+                  <c:v>0.84842545342884435</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.0361841970442744E-4</c:v>
+                  <c:v>0.92889344428587362</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.8071232489170269E-4</c:v>
+                  <c:v>0.96196969848755531</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.4147267923891469E-4</c:v>
+                  <c:v>0.9827937319150627</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-62E6-7F46-807B-B5068341DAC3}"/>
+              <c16:uniqueId val="{00000002-339E-E34E-8D0E-F7E1F9FB91FE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2132,35 +2129,35 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Results!$AL$39:$AL$44</c:f>
+              <c:f>Results!$AN$39:$AN$44</c:f>
               <c:numCache>
-                <c:formatCode>0.0E+00</c:formatCode>
+                <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1.4496050989866831E-5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.5162579572102828E-5</c:v>
+                  <c:v>4.3958785447188863E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.5382669078129106E-5</c:v>
+                  <c:v>5.7637467448536477E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.5501867659807683E-5</c:v>
+                  <c:v>6.4883579966862531E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.5755330788038454E-5</c:v>
+                  <c:v>7.9927220514321218E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.560784227475053E-5</c:v>
+                  <c:v>7.1232862641256417E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-62E6-7F46-807B-B5068341DAC3}"/>
+              <c16:uniqueId val="{00000003-339E-E34E-8D0E-F7E1F9FB91FE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2223,35 +2220,35 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Results!$AL$54:$AL$59</c:f>
+              <c:f>Results!$AN$54:$AN$59</c:f>
               <c:numCache>
-                <c:formatCode>0.0E+00</c:formatCode>
+                <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>3.5415977327472022E-5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.1025561724815848E-4</c:v>
+                  <c:v>0.67878301159242249</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.1945953449271759E-4</c:v>
+                  <c:v>0.70353159772583052</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.423395859474224E-4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.8045641259999462</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.783335915311445</c:v>
+                  <c:v>0.75118673353065646</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.000%">
+                  <c:v>0.9999559811627402</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.000%">
+                  <c:v>0.99998727570857238</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-62E6-7F46-807B-B5068341DAC3}"/>
+              <c16:uniqueId val="{00000004-339E-E34E-8D0E-F7E1F9FB91FE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2314,35 +2311,35 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Results!$AM$69:$AM$74</c:f>
+              <c:f>Results!$AN$69:$AN$74</c:f>
               <c:numCache>
-                <c:formatCode>0.0E+00</c:formatCode>
+                <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="6"/>
-                <c:pt idx="0" formatCode="General">
+                <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.2623813050919406E-4</c:v>
+                  <c:v>0.83722642388269786</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.1090492584350242E-4</c:v>
+                  <c:v>0.81879988471317522</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.3527040555255524E-4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.80962403254826365</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.1325271705325615</c:v>
+                  <c:v>0.84642598811396663</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.000%">
+                  <c:v>0.9999696865772415</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.000%">
+                  <c:v>0.99998849114916899</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-62E6-7F46-807B-B5068341DAC3}"/>
+              <c16:uniqueId val="{00000005-339E-E34E-8D0E-F7E1F9FB91FE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2354,11 +2351,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1353684847"/>
-        <c:axId val="1353686575"/>
+        <c:axId val="324264096"/>
+        <c:axId val="324045472"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1353684847"/>
+        <c:axId val="324264096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2412,1317 +2409,24 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-GB"/>
-                  <a:t>N threads</a:t>
+                  <a:rPr lang="en-GB" sz="1200"/>
+                  <a:t>Threads</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1200" baseline="0"/>
+                  <a:t> number</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-RU"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-RU"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1353686575"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1353686575"/>
-        <c:scaling>
-          <c:logBase val="5"/>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:minorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="5000"/>
-                  <a:lumOff val="95000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:minorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-GB"/>
-                  <a:t>Latency</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-RU"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="0.0E+00" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-RU"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1353684847"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-RU"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-RU"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-GB"/>
-              <a:t>Difference between latencies</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-GB" baseline="0"/>
-              <a:t> on TAS lock</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-RU"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>Latency</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Results!$AJ$9:$AJ$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Results!$AL$9:$AL$14</c:f>
-              <c:numCache>
-                <c:formatCode>0.0E+00</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1.4886966034656264E-5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.0757573121351435E-4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.0926411755849803E-4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.0107272782595861E-4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.9754160269272021E-4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.2735136011862162E-3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1448-B946-8017-95B36E77635A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>Lock waiting latency</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Results!$AJ$9:$AJ$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Results!$AM$9:$AM$14</c:f>
-              <c:numCache>
-                <c:formatCode>0.0E+00</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0" formatCode="General">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9.2688765178858092E-5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.9437715152384176E-4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.8618576179130234E-4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.8265463665806399E-4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.2586266351515599E-3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-1448-B946-8017-95B36E77635A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="859299727"/>
-        <c:axId val="859301455"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="859299727"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-RU"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="859301455"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="859301455"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0.0E+00" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-RU"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="859299727"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-RU"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-RU"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>TAS Lock</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Results!$AL$9:$AL$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1.4886966034656264E-5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.0757573121351435E-4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.0926411755849803E-4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.0107272782595861E-4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.9754160269272021E-4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.2735136011862162E-3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Results!$AN$9:$AN$14</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>13.838591536141998</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7.1139601993613351</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.7117871652236345</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.4913689636956837</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.1689679655395802</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-339E-E34E-8D0E-F7E1F9FB91FE}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>TTAS Lock</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Results!$AL$24:$AL$29</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1.4478604505135245E-5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.2477616519394961E-5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9.5521344662828086E-5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.0361841970442744E-4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.8071232489170269E-4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8.4147267923891469E-4</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Results!$AN$24:$AN$29</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>19.976656518858871</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15.157454657115565</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7.1106555714126385</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.8030301512444686</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.7206268084937304</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-339E-E34E-8D0E-F7E1F9FB91FE}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>Backoff Lock</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Results!$AL$39:$AL$44</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1.4496050989866831E-5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.5162579572102828E-5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.5382669078129106E-5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.5501867659807683E-5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.5755330788038454E-5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.560784227475053E-5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Results!$AN$39:$AN$44</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>95.604121455281117</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>94.236253255146352</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>93.511642003313739</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>92.007277948567875</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>92.876713735874361</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-339E-E34E-8D0E-F7E1F9FB91FE}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:v>CLH Lock</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Results!$AL$54:$AL$59</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>3.5415977327472022E-5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.1025561724815848E-4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.1945953449271759E-4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.423395859474224E-4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.8045641259999462</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.783335915311445</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Results!$AN$54:$AN$59</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>32.121698840757752</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>29.646840227416948</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>24.881326646934355</c:v>
-                </c:pt>
-                <c:pt idx="4" formatCode="0.00E+00">
-                  <c:v>4.4018837259796051E-3</c:v>
-                </c:pt>
-                <c:pt idx="5" formatCode="0.00E+00">
-                  <c:v>1.2724291427623768E-3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-339E-E34E-8D0E-F7E1F9FB91FE}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:v>MCS Lock</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent5"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Results!$AL$69:$AL$74</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>2.4543219563054768E-5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.5078135007224884E-4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.3544814540655719E-4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.5981362511561002E-4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.80964857576782667</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.1325517137521244</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Results!$AN$69:$AN$74</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>16.277357611730213</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>18.120011528682479</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>15.357401188603337</c:v>
-                </c:pt>
-                <c:pt idx="4" formatCode="0.00E+00">
-                  <c:v>3.0313422758498909E-3</c:v>
-                </c:pt>
-                <c:pt idx="5" formatCode="0.00E+00">
-                  <c:v>1.1508850831010164E-3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-339E-E34E-8D0E-F7E1F9FB91FE}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="324264096"/>
-        <c:axId val="324045472"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="324264096"/>
-        <c:scaling>
-          <c:logBase val="10"/>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:minorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="5000"/>
-                  <a:lumOff val="95000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:minorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-GB"/>
-                  <a:t>Dirty average latency</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.47944279515172333"/>
+              <c:y val="0.95084201625383047"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3848,8 +2552,8 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-GB"/>
-                  <a:t>Impact of critical section running time, %</a:t>
+                  <a:rPr lang="en-GB" sz="1200"/>
+                  <a:t>Impact of lock waiting time, %</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -3883,7 +2587,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3934,6 +2638,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.25754561780448099"/>
+          <c:y val="2.3930864298338107E-2"/>
+          <c:w val="0.48751321213948634"/>
+          <c:h val="3.7407582148238569E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3947,7 +2661,857 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>TTAS Lock</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Results!$AJ$24:$AJ$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Results!$AM$24:$AM$29</c:f>
+              <c:numCache>
+                <c:formatCode>0.0E+00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.7999012014259716E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.1042740157692841E-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.8913981519929219E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.6623372038656744E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.2699407473377944E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2E1F-344D-AD6C-9C86B62FBD5C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>TAS Lock</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Results!$AJ$9:$AJ$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Results!$AM$9:$AM$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.0E+00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.2688765178858092E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.9437715152384176E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.8618576179130234E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.8265463665806399E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2586266351515599E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2E1F-344D-AD6C-9C86B62FBD5C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Backoff Lock</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Results!$AJ$39:$AJ$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Results!$AM$39:$AM$44</c:f>
+              <c:numCache>
+                <c:formatCode>0.0E+00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.6652858223599695E-7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.8661808826227494E-7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.005816669940852E-6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2592797981716238E-6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1117912848836996E-6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-2E1F-344D-AD6C-9C86B62FBD5C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>CLH</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Results!$AJ$54:$AJ$59</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Results!$AM$54:$AM$59</c:f>
+              <c:numCache>
+                <c:formatCode>0.0E+00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.4839639920686447E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.4043557165245562E-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0692360861995037E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.80452871002261872</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.7833004993341177</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-2E1F-344D-AD6C-9C86B62FBD5C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>MCS Lock</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Results!$AJ$69:$AJ$74</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Results!$AM$69:$AM$74</c:f>
+              <c:numCache>
+                <c:formatCode>0.0E+00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2623813050919406E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1090492584350242E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3527040555255524E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.80962403254826365</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.1325271705325615</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-2E1F-344D-AD6C-9C86B62FBD5C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="267444112"/>
+        <c:axId val="267445840"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="267444112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1200" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Threads number</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-RU" sz="700">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.47142121356468197"/>
+              <c:y val="0.94882769134764933"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="267445840"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="267445840"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1200" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Latency</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-RU" sz="700">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="267444112"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -4088,46 +3652,6 @@
 </file>
 
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -5715,522 +5239,6 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -6272,22 +5280,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>44</xdr:col>
-      <xdr:colOff>698500</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>681567</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>79021</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>57</xdr:col>
-      <xdr:colOff>279400</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:colOff>406401</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>181428</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
+        <xdr:cNvPr id="6" name="Chart 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55679502-CB6F-74CF-F967-A75F639702B0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DF317F1-1884-F7AA-9605-78EBA84D27D6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6308,22 +5316,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>44</xdr:col>
-      <xdr:colOff>600538</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>93910</xdr:rowOff>
+      <xdr:colOff>687388</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>75407</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>57</xdr:col>
-      <xdr:colOff>343243</xdr:colOff>
-      <xdr:row>85</xdr:row>
-      <xdr:rowOff>137297</xdr:rowOff>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>159544</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3">
+        <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{041CC89B-5323-A2A6-6299-C4020FD6FA06}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAF95D5E-5DB2-6EA3-EC6E-74AE61DFC90B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6336,42 +5344,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>44</xdr:col>
-      <xdr:colOff>592666</xdr:colOff>
-      <xdr:row>92</xdr:row>
-      <xdr:rowOff>16933</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>57</xdr:col>
-      <xdr:colOff>352769</xdr:colOff>
-      <xdr:row>118</xdr:row>
-      <xdr:rowOff>135466</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DF317F1-1884-F7AA-9605-78EBA84D27D6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -6592,8 +5564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AQ106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AF68" zoomScale="89" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AK77" sqref="AK77"/>
+    <sheetView tabSelected="1" topLeftCell="AM29" zoomScale="106" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="AR41" sqref="AR41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6616,117 +5588,120 @@
     <col min="17" max="17" width="11.1640625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="19" max="28" width="11" bestFit="1" customWidth="1"/>
-    <col min="32" max="43" width="12.83203125" style="85" customWidth="1"/>
+    <col min="30" max="30" width="10.5" customWidth="1"/>
+    <col min="31" max="31" width="5.6640625" customWidth="1"/>
+    <col min="32" max="43" width="12.83203125" style="56" customWidth="1"/>
+    <col min="44" max="44" width="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="47"/>
-      <c r="Q2" s="44" t="s">
+      <c r="B2" s="85"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="86"/>
+      <c r="J2" s="86"/>
+      <c r="K2" s="86"/>
+      <c r="L2" s="87"/>
+      <c r="Q2" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="R2" s="45"/>
-      <c r="S2" s="46"/>
-      <c r="T2" s="46"/>
-      <c r="U2" s="46"/>
-      <c r="V2" s="46"/>
-      <c r="W2" s="46"/>
-      <c r="X2" s="46"/>
-      <c r="Y2" s="46"/>
-      <c r="Z2" s="46"/>
-      <c r="AA2" s="46"/>
-      <c r="AB2" s="47"/>
-      <c r="AF2" s="102" t="s">
+      <c r="R2" s="85"/>
+      <c r="S2" s="86"/>
+      <c r="T2" s="86"/>
+      <c r="U2" s="86"/>
+      <c r="V2" s="86"/>
+      <c r="W2" s="86"/>
+      <c r="X2" s="86"/>
+      <c r="Y2" s="86"/>
+      <c r="Z2" s="86"/>
+      <c r="AA2" s="86"/>
+      <c r="AB2" s="87"/>
+      <c r="AF2" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="AG2" s="103"/>
-      <c r="AH2" s="103"/>
-      <c r="AI2" s="103"/>
-      <c r="AJ2" s="103"/>
-      <c r="AK2" s="103"/>
-      <c r="AL2" s="103"/>
-      <c r="AM2" s="103"/>
-      <c r="AN2" s="103"/>
-      <c r="AO2" s="103"/>
-      <c r="AP2" s="103"/>
-      <c r="AQ2" s="104"/>
+      <c r="AG2" s="89"/>
+      <c r="AH2" s="89"/>
+      <c r="AI2" s="89"/>
+      <c r="AJ2" s="89"/>
+      <c r="AK2" s="89"/>
+      <c r="AL2" s="89"/>
+      <c r="AM2" s="89"/>
+      <c r="AN2" s="89"/>
+      <c r="AO2" s="89"/>
+      <c r="AP2" s="89"/>
+      <c r="AQ2" s="90"/>
     </row>
     <row r="3" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="49" t="s">
+      <c r="B3" s="87"/>
+      <c r="C3" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="50"/>
-      <c r="E3" s="44" t="s">
+      <c r="D3" s="93"/>
+      <c r="E3" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="50"/>
-      <c r="G3" s="44" t="s">
+      <c r="F3" s="93"/>
+      <c r="G3" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="50"/>
-      <c r="I3" s="44" t="s">
+      <c r="H3" s="93"/>
+      <c r="I3" s="84" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="50"/>
-      <c r="K3" s="44" t="s">
+      <c r="J3" s="93"/>
+      <c r="K3" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="L3" s="50"/>
-      <c r="Q3" s="44" t="s">
+      <c r="L3" s="93"/>
+      <c r="Q3" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="R3" s="50"/>
-      <c r="S3" s="44" t="s">
+      <c r="R3" s="93"/>
+      <c r="S3" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="T3" s="50"/>
-      <c r="U3" s="44" t="s">
+      <c r="T3" s="93"/>
+      <c r="U3" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="V3" s="50"/>
-      <c r="W3" s="44" t="s">
+      <c r="V3" s="93"/>
+      <c r="W3" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="X3" s="50"/>
-      <c r="Y3" s="44" t="s">
+      <c r="X3" s="93"/>
+      <c r="Y3" s="84" t="s">
         <v>5</v>
       </c>
-      <c r="Z3" s="50"/>
-      <c r="AA3" s="44" t="s">
+      <c r="Z3" s="93"/>
+      <c r="AA3" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="AB3" s="50"/>
-      <c r="AF3" s="105" t="s">
+      <c r="AB3" s="93"/>
+      <c r="AF3" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="AG3" s="106"/>
-      <c r="AH3" s="106"/>
-      <c r="AI3" s="106"/>
-      <c r="AJ3" s="106"/>
-      <c r="AK3" s="106"/>
-      <c r="AL3" s="106"/>
-      <c r="AM3" s="106"/>
-      <c r="AN3" s="106"/>
-      <c r="AO3" s="106"/>
-      <c r="AP3" s="106"/>
-      <c r="AQ3" s="107"/>
+      <c r="AG3" s="95"/>
+      <c r="AH3" s="95"/>
+      <c r="AI3" s="95"/>
+      <c r="AJ3" s="95"/>
+      <c r="AK3" s="95"/>
+      <c r="AL3" s="95"/>
+      <c r="AM3" s="95"/>
+      <c r="AN3" s="95"/>
+      <c r="AO3" s="95"/>
+      <c r="AP3" s="95"/>
+      <c r="AQ3" s="96"/>
     </row>
     <row r="4" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -6801,32 +5776,32 @@
       <c r="AB4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="AF4" s="105">
+      <c r="AF4" s="94">
         <v>1</v>
       </c>
-      <c r="AG4" s="106"/>
-      <c r="AH4" s="105">
+      <c r="AG4" s="95"/>
+      <c r="AH4" s="94">
         <v>2</v>
       </c>
-      <c r="AI4" s="107"/>
-      <c r="AJ4" s="105">
+      <c r="AI4" s="96"/>
+      <c r="AJ4" s="94">
         <v>4</v>
       </c>
-      <c r="AK4" s="107"/>
-      <c r="AL4" s="105">
+      <c r="AK4" s="96"/>
+      <c r="AL4" s="94">
         <v>8</v>
       </c>
-      <c r="AM4" s="107"/>
-      <c r="AN4" s="105">
+      <c r="AM4" s="96"/>
+      <c r="AN4" s="94">
         <v>16</v>
       </c>
-      <c r="AO4" s="107"/>
-      <c r="AP4" s="105">
+      <c r="AO4" s="96"/>
+      <c r="AP4" s="94">
         <v>32</v>
       </c>
-      <c r="AQ4" s="107"/>
+      <c r="AQ4" s="96"/>
     </row>
-    <row r="5" spans="1:43" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:43" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>60005</v>
       </c>
@@ -6911,41 +5886,41 @@
         <f t="shared" ref="AB5:AB14" si="10">K5/L5</f>
         <v>1.5530600645701758E-3</v>
       </c>
-      <c r="AF5" s="111" t="s">
-        <v>12</v>
-      </c>
-      <c r="AG5" s="112" t="s">
-        <v>13</v>
-      </c>
-      <c r="AH5" s="111" t="s">
-        <v>12</v>
-      </c>
-      <c r="AI5" s="112" t="s">
-        <v>13</v>
-      </c>
-      <c r="AJ5" s="111" t="s">
-        <v>12</v>
-      </c>
-      <c r="AK5" s="112" t="s">
-        <v>13</v>
-      </c>
-      <c r="AL5" s="113" t="s">
-        <v>12</v>
-      </c>
-      <c r="AM5" s="114" t="s">
-        <v>13</v>
-      </c>
-      <c r="AN5" s="111" t="s">
-        <v>12</v>
-      </c>
-      <c r="AO5" s="112" t="s">
-        <v>13</v>
-      </c>
-      <c r="AP5" s="111" t="s">
-        <v>12</v>
-      </c>
-      <c r="AQ5" s="112" t="s">
-        <v>13</v>
+      <c r="AF5" s="119" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG5" s="120" t="s">
+        <v>11</v>
+      </c>
+      <c r="AH5" s="119" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI5" s="120" t="s">
+        <v>11</v>
+      </c>
+      <c r="AJ5" s="119" t="s">
+        <v>10</v>
+      </c>
+      <c r="AK5" s="120" t="s">
+        <v>11</v>
+      </c>
+      <c r="AL5" s="119" t="s">
+        <v>10</v>
+      </c>
+      <c r="AM5" s="120" t="s">
+        <v>11</v>
+      </c>
+      <c r="AN5" s="119" t="s">
+        <v>10</v>
+      </c>
+      <c r="AO5" s="120" t="s">
+        <v>11</v>
+      </c>
+      <c r="AP5" s="119" t="s">
+        <v>10</v>
+      </c>
+      <c r="AQ5" s="120" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -7033,51 +6008,51 @@
         <f t="shared" si="10"/>
         <v>1.1760218277927536E-3</v>
       </c>
-      <c r="AF6" s="115">
+      <c r="AF6" s="68">
         <f>AVERAGE(Q5:Q14)</f>
         <v>67466.006520421768</v>
       </c>
-      <c r="AG6" s="116">
+      <c r="AG6" s="69">
         <f>AVERAGE(R5:R14)</f>
         <v>1.4886966034656264E-5</v>
       </c>
-      <c r="AH6" s="115">
+      <c r="AH6" s="68">
         <f>AVERAGE(S5:S14)</f>
         <v>9806.8422247358812</v>
       </c>
-      <c r="AI6" s="116">
+      <c r="AI6" s="69">
         <f>AVERAGE(T5:T14)</f>
         <v>1.0757573121351435E-4</v>
       </c>
-      <c r="AJ6" s="115">
+      <c r="AJ6" s="68">
         <f t="shared" ref="AJ6:AQ6" si="12">AVERAGE(U5:U14)</f>
         <v>4859.6497401202505</v>
       </c>
-      <c r="AK6" s="116">
+      <c r="AK6" s="69">
         <f t="shared" si="12"/>
         <v>2.0926411755849803E-4</v>
       </c>
-      <c r="AL6" s="117">
+      <c r="AL6" s="70">
         <f t="shared" si="12"/>
         <v>2497.2868513036815</v>
       </c>
-      <c r="AM6" s="118">
+      <c r="AM6" s="71">
         <f t="shared" si="12"/>
         <v>4.0107272782595861E-4</v>
       </c>
-      <c r="AN6" s="115">
+      <c r="AN6" s="68">
         <f t="shared" si="12"/>
         <v>1735.8953310095058</v>
       </c>
-      <c r="AO6" s="116">
+      <c r="AO6" s="69">
         <f t="shared" si="12"/>
         <v>5.9754160269272021E-4</v>
       </c>
-      <c r="AP6" s="115">
+      <c r="AP6" s="68">
         <f t="shared" si="12"/>
         <v>830.24392817419118</v>
       </c>
-      <c r="AQ6" s="116">
+      <c r="AQ6" s="69">
         <f t="shared" si="12"/>
         <v>1.2735136011862162E-3</v>
       </c>
@@ -7168,7 +6143,7 @@
         <v>7.6513264611176291E-4</v>
       </c>
     </row>
-    <row r="8" spans="1:43" ht="86" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:43" ht="52" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>60002</v>
       </c>
@@ -7253,20 +6228,20 @@
         <f t="shared" si="10"/>
         <v>1.1435957276873313E-3</v>
       </c>
-      <c r="AJ8" s="86" t="s">
+      <c r="AJ8" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="AK8" s="98" t="s">
-        <v>12</v>
-      </c>
-      <c r="AL8" s="87" t="s">
-        <v>18</v>
-      </c>
-      <c r="AM8" s="87" t="s">
-        <v>13</v>
-      </c>
-      <c r="AN8" s="51" t="s">
-        <v>19</v>
+      <c r="AK8" s="121" t="s">
+        <v>10</v>
+      </c>
+      <c r="AL8" s="121" t="s">
+        <v>32</v>
+      </c>
+      <c r="AM8" s="121" t="s">
+        <v>11</v>
+      </c>
+      <c r="AN8" s="83" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:43" x14ac:dyDescent="0.2">
@@ -7354,23 +6329,23 @@
         <f t="shared" si="10"/>
         <v>1.5956231904044656E-3</v>
       </c>
-      <c r="AJ9" s="88">
+      <c r="AJ9" s="58">
         <v>1</v>
       </c>
-      <c r="AK9" s="89">
+      <c r="AK9" s="59">
         <f>AF6</f>
         <v>67466.006520421768</v>
       </c>
-      <c r="AL9" s="90">
+      <c r="AL9" s="60">
         <f>AG6</f>
         <v>1.4886966034656264E-5</v>
       </c>
-      <c r="AM9" s="91">
+      <c r="AM9" s="61">
         <v>0</v>
       </c>
-      <c r="AN9" s="99">
-        <f>(1-AM9/AL9)*100</f>
-        <v>100</v>
+      <c r="AN9" s="79">
+        <f>(AM9/AL9)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:43" x14ac:dyDescent="0.2">
@@ -7458,24 +6433,24 @@
         <f t="shared" si="10"/>
         <v>1.5101452148835065E-3</v>
       </c>
-      <c r="AJ10" s="92">
+      <c r="AJ10" s="62">
         <v>2</v>
       </c>
-      <c r="AK10" s="93">
+      <c r="AK10" s="63">
         <f>AH6</f>
         <v>9806.8422247358812</v>
       </c>
-      <c r="AL10" s="94">
+      <c r="AL10" s="64">
         <f>AI6</f>
         <v>1.0757573121351435E-4</v>
       </c>
-      <c r="AM10" s="94">
+      <c r="AM10" s="64">
         <f>AL10-$AL$9</f>
         <v>9.2688765178858092E-5</v>
       </c>
-      <c r="AN10" s="99">
-        <f t="shared" ref="AN10:AN14" si="13">(1-AM10/AL10)*100</f>
-        <v>13.838591536141998</v>
+      <c r="AN10" s="79">
+        <f t="shared" ref="AN10:AN14" si="13">(AM10/AL10)</f>
+        <v>0.86161408463858002</v>
       </c>
     </row>
     <row r="11" spans="1:43" x14ac:dyDescent="0.2">
@@ -7563,24 +6538,24 @@
         <f t="shared" si="10"/>
         <v>1.5332256419979958E-3</v>
       </c>
-      <c r="AJ11" s="92">
+      <c r="AJ11" s="62">
         <v>4</v>
       </c>
-      <c r="AK11" s="93">
+      <c r="AK11" s="63">
         <f>AJ6</f>
         <v>4859.6497401202505</v>
       </c>
-      <c r="AL11" s="94">
+      <c r="AL11" s="64">
         <f>AK6</f>
         <v>2.0926411755849803E-4</v>
       </c>
-      <c r="AM11" s="94">
+      <c r="AM11" s="64">
         <f>AL11-$AL$9</f>
         <v>1.9437715152384176E-4</v>
       </c>
-      <c r="AN11" s="99">
+      <c r="AN11" s="79">
         <f t="shared" si="13"/>
-        <v>7.1139601993613351</v>
+        <v>0.92886039800638664</v>
       </c>
     </row>
     <row r="12" spans="1:43" x14ac:dyDescent="0.2">
@@ -7668,24 +6643,24 @@
         <f t="shared" si="10"/>
         <v>1.1763929504072785E-3</v>
       </c>
-      <c r="AJ12" s="92">
+      <c r="AJ12" s="62">
         <v>8</v>
       </c>
-      <c r="AK12" s="93">
+      <c r="AK12" s="63">
         <f>AL6</f>
         <v>2497.2868513036815</v>
       </c>
-      <c r="AL12" s="94">
+      <c r="AL12" s="64">
         <f>AM6</f>
         <v>4.0107272782595861E-4</v>
       </c>
-      <c r="AM12" s="94">
+      <c r="AM12" s="64">
         <f>AL12-$AL$9</f>
         <v>3.8618576179130234E-4</v>
       </c>
-      <c r="AN12" s="99">
+      <c r="AN12" s="79">
         <f t="shared" si="13"/>
-        <v>3.7117871652236345</v>
+        <v>0.96288212834776366</v>
       </c>
     </row>
     <row r="13" spans="1:43" x14ac:dyDescent="0.2">
@@ -7773,24 +6748,24 @@
         <f t="shared" si="10"/>
         <v>8.9871470589472896E-4</v>
       </c>
-      <c r="AJ13" s="92">
+      <c r="AJ13" s="62">
         <v>16</v>
       </c>
-      <c r="AK13" s="93">
+      <c r="AK13" s="63">
         <f>AN6</f>
         <v>1735.8953310095058</v>
       </c>
-      <c r="AL13" s="94">
+      <c r="AL13" s="64">
         <f>AO6</f>
         <v>5.9754160269272021E-4</v>
       </c>
-      <c r="AM13" s="94">
+      <c r="AM13" s="64">
         <f>AL13-$AL$9</f>
         <v>5.8265463665806399E-4</v>
       </c>
-      <c r="AN13" s="99">
+      <c r="AN13" s="79">
         <f t="shared" si="13"/>
-        <v>2.4913689636956837</v>
+        <v>0.97508631036304316</v>
       </c>
     </row>
     <row r="14" spans="1:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -7878,133 +6853,133 @@
         <f t="shared" si="10"/>
         <v>1.3832240421121638E-3</v>
       </c>
-      <c r="AJ14" s="95">
+      <c r="AJ14" s="65">
         <v>32</v>
       </c>
-      <c r="AK14" s="96">
+      <c r="AK14" s="66">
         <f>AP6</f>
         <v>830.24392817419118</v>
       </c>
-      <c r="AL14" s="97">
+      <c r="AL14" s="67">
         <f>AQ6</f>
         <v>1.2735136011862162E-3</v>
       </c>
-      <c r="AM14" s="97">
+      <c r="AM14" s="67">
         <f>AL14-$AL$9</f>
         <v>1.2586266351515599E-3</v>
       </c>
-      <c r="AN14" s="108">
+      <c r="AN14" s="81">
         <f t="shared" si="13"/>
-        <v>1.1689679655395802</v>
+        <v>0.9883103203446042</v>
       </c>
     </row>
     <row r="17" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A17" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" s="45"/>
-      <c r="C17" s="46"/>
-      <c r="D17" s="46"/>
-      <c r="E17" s="46"/>
-      <c r="F17" s="46"/>
-      <c r="G17" s="46"/>
-      <c r="H17" s="46"/>
-      <c r="I17" s="46"/>
-      <c r="J17" s="46"/>
-      <c r="K17" s="46"/>
-      <c r="L17" s="47"/>
-      <c r="Q17" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="R17" s="45"/>
-      <c r="S17" s="46"/>
-      <c r="T17" s="46"/>
-      <c r="U17" s="46"/>
-      <c r="V17" s="46"/>
-      <c r="W17" s="46"/>
-      <c r="X17" s="46"/>
-      <c r="Y17" s="46"/>
-      <c r="Z17" s="46"/>
-      <c r="AA17" s="46"/>
-      <c r="AB17" s="47"/>
-      <c r="AF17" s="109" t="s">
-        <v>14</v>
-      </c>
-      <c r="AG17" s="110"/>
-      <c r="AH17" s="103"/>
-      <c r="AI17" s="103"/>
-      <c r="AJ17" s="103"/>
-      <c r="AK17" s="103"/>
-      <c r="AL17" s="103"/>
-      <c r="AM17" s="103"/>
-      <c r="AN17" s="103"/>
-      <c r="AO17" s="103"/>
-      <c r="AP17" s="103"/>
-      <c r="AQ17" s="104"/>
+      <c r="A17" s="84" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="85"/>
+      <c r="C17" s="86"/>
+      <c r="D17" s="86"/>
+      <c r="E17" s="86"/>
+      <c r="F17" s="86"/>
+      <c r="G17" s="86"/>
+      <c r="H17" s="86"/>
+      <c r="I17" s="86"/>
+      <c r="J17" s="86"/>
+      <c r="K17" s="86"/>
+      <c r="L17" s="87"/>
+      <c r="Q17" s="84" t="s">
+        <v>12</v>
+      </c>
+      <c r="R17" s="85"/>
+      <c r="S17" s="86"/>
+      <c r="T17" s="86"/>
+      <c r="U17" s="86"/>
+      <c r="V17" s="86"/>
+      <c r="W17" s="86"/>
+      <c r="X17" s="86"/>
+      <c r="Y17" s="86"/>
+      <c r="Z17" s="86"/>
+      <c r="AA17" s="86"/>
+      <c r="AB17" s="87"/>
+      <c r="AF17" s="97" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG17" s="98"/>
+      <c r="AH17" s="89"/>
+      <c r="AI17" s="89"/>
+      <c r="AJ17" s="89"/>
+      <c r="AK17" s="89"/>
+      <c r="AL17" s="89"/>
+      <c r="AM17" s="89"/>
+      <c r="AN17" s="89"/>
+      <c r="AO17" s="89"/>
+      <c r="AP17" s="89"/>
+      <c r="AQ17" s="90"/>
     </row>
     <row r="18" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A18" s="48" t="s">
+      <c r="A18" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="B18" s="47"/>
-      <c r="C18" s="49" t="s">
+      <c r="B18" s="87"/>
+      <c r="C18" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="D18" s="50"/>
-      <c r="E18" s="44" t="s">
+      <c r="D18" s="93"/>
+      <c r="E18" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="F18" s="50"/>
-      <c r="G18" s="44" t="s">
+      <c r="F18" s="93"/>
+      <c r="G18" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="H18" s="50"/>
-      <c r="I18" s="44" t="s">
+      <c r="H18" s="93"/>
+      <c r="I18" s="84" t="s">
         <v>5</v>
       </c>
-      <c r="J18" s="50"/>
-      <c r="K18" s="44" t="s">
+      <c r="J18" s="93"/>
+      <c r="K18" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="L18" s="50"/>
-      <c r="Q18" s="44" t="s">
+      <c r="L18" s="93"/>
+      <c r="Q18" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="R18" s="50"/>
-      <c r="S18" s="44" t="s">
+      <c r="R18" s="93"/>
+      <c r="S18" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="T18" s="50"/>
-      <c r="U18" s="44" t="s">
+      <c r="T18" s="93"/>
+      <c r="U18" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="V18" s="50"/>
-      <c r="W18" s="44" t="s">
+      <c r="V18" s="93"/>
+      <c r="W18" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="X18" s="50"/>
-      <c r="Y18" s="44" t="s">
+      <c r="X18" s="93"/>
+      <c r="Y18" s="84" t="s">
         <v>5</v>
       </c>
-      <c r="Z18" s="50"/>
-      <c r="AA18" s="44" t="s">
+      <c r="Z18" s="93"/>
+      <c r="AA18" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="AB18" s="50"/>
-      <c r="AF18" s="105" t="s">
+      <c r="AB18" s="93"/>
+      <c r="AF18" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="AG18" s="106"/>
-      <c r="AH18" s="106"/>
-      <c r="AI18" s="106"/>
-      <c r="AJ18" s="106"/>
-      <c r="AK18" s="106"/>
-      <c r="AL18" s="106"/>
-      <c r="AM18" s="106"/>
-      <c r="AN18" s="106"/>
-      <c r="AO18" s="106"/>
-      <c r="AP18" s="106"/>
-      <c r="AQ18" s="107"/>
+      <c r="AG18" s="95"/>
+      <c r="AH18" s="95"/>
+      <c r="AI18" s="95"/>
+      <c r="AJ18" s="95"/>
+      <c r="AK18" s="95"/>
+      <c r="AL18" s="95"/>
+      <c r="AM18" s="95"/>
+      <c r="AN18" s="95"/>
+      <c r="AO18" s="95"/>
+      <c r="AP18" s="95"/>
+      <c r="AQ18" s="96"/>
     </row>
     <row r="19" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
@@ -8079,32 +7054,32 @@
       <c r="AB19" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="AF19" s="105">
+      <c r="AF19" s="94">
         <v>1</v>
       </c>
-      <c r="AG19" s="106"/>
-      <c r="AH19" s="105">
+      <c r="AG19" s="95"/>
+      <c r="AH19" s="94">
         <v>2</v>
       </c>
-      <c r="AI19" s="107"/>
-      <c r="AJ19" s="105">
+      <c r="AI19" s="96"/>
+      <c r="AJ19" s="94">
         <v>4</v>
       </c>
-      <c r="AK19" s="107"/>
-      <c r="AL19" s="105">
+      <c r="AK19" s="96"/>
+      <c r="AL19" s="94">
         <v>8</v>
       </c>
-      <c r="AM19" s="107"/>
-      <c r="AN19" s="105">
+      <c r="AM19" s="96"/>
+      <c r="AN19" s="94">
         <v>16</v>
       </c>
-      <c r="AO19" s="107"/>
-      <c r="AP19" s="105">
+      <c r="AO19" s="96"/>
+      <c r="AP19" s="94">
         <v>32</v>
       </c>
-      <c r="AQ19" s="107"/>
+      <c r="AQ19" s="96"/>
     </row>
-    <row r="20" spans="1:43" ht="34" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:43" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
         <v>60007</v>
       </c>
@@ -8189,41 +7164,41 @@
         <f t="shared" ref="AB20:AB74" si="25">K20/L20</f>
         <v>8.3244063002795889E-4</v>
       </c>
-      <c r="AF20" s="111" t="s">
-        <v>12</v>
-      </c>
-      <c r="AG20" s="112" t="s">
-        <v>13</v>
-      </c>
-      <c r="AH20" s="111" t="s">
-        <v>12</v>
-      </c>
-      <c r="AI20" s="112" t="s">
-        <v>13</v>
-      </c>
-      <c r="AJ20" s="111" t="s">
-        <v>12</v>
-      </c>
-      <c r="AK20" s="112" t="s">
-        <v>13</v>
-      </c>
-      <c r="AL20" s="113" t="s">
-        <v>12</v>
-      </c>
-      <c r="AM20" s="114" t="s">
-        <v>13</v>
-      </c>
-      <c r="AN20" s="111" t="s">
-        <v>12</v>
-      </c>
-      <c r="AO20" s="112" t="s">
-        <v>13</v>
-      </c>
-      <c r="AP20" s="111" t="s">
-        <v>12</v>
-      </c>
-      <c r="AQ20" s="112" t="s">
-        <v>13</v>
+      <c r="AF20" s="119" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG20" s="120" t="s">
+        <v>11</v>
+      </c>
+      <c r="AH20" s="119" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI20" s="120" t="s">
+        <v>11</v>
+      </c>
+      <c r="AJ20" s="119" t="s">
+        <v>10</v>
+      </c>
+      <c r="AK20" s="120" t="s">
+        <v>11</v>
+      </c>
+      <c r="AL20" s="119" t="s">
+        <v>10</v>
+      </c>
+      <c r="AM20" s="120" t="s">
+        <v>11</v>
+      </c>
+      <c r="AN20" s="119" t="s">
+        <v>10</v>
+      </c>
+      <c r="AO20" s="120" t="s">
+        <v>11</v>
+      </c>
+      <c r="AP20" s="119" t="s">
+        <v>10</v>
+      </c>
+      <c r="AQ20" s="120" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:43" x14ac:dyDescent="0.2">
@@ -8311,51 +7286,51 @@
         <f t="shared" si="25"/>
         <v>8.8339901529616244E-4</v>
       </c>
-      <c r="AF21" s="115">
+      <c r="AF21" s="68">
         <f t="shared" ref="AF21:AQ66" si="26">AVERAGE(Q20:Q29)</f>
         <v>69067.947113738453</v>
       </c>
-      <c r="AG21" s="116">
+      <c r="AG21" s="69">
         <f t="shared" si="26"/>
         <v>1.4478604505135245E-5</v>
       </c>
-      <c r="AH21" s="117">
+      <c r="AH21" s="70">
         <f t="shared" si="26"/>
         <v>14433.018063229736</v>
       </c>
-      <c r="AI21" s="119">
+      <c r="AI21" s="72">
         <f t="shared" si="26"/>
         <v>7.2477616519394961E-5</v>
       </c>
-      <c r="AJ21" s="120">
+      <c r="AJ21" s="73">
         <f t="shared" si="26"/>
         <v>11753.427180640771</v>
       </c>
-      <c r="AK21" s="119">
+      <c r="AK21" s="72">
         <f t="shared" si="26"/>
         <v>9.5521344662828086E-5</v>
       </c>
-      <c r="AL21" s="120">
+      <c r="AL21" s="73">
         <f t="shared" si="26"/>
         <v>5012.6166532646475</v>
       </c>
-      <c r="AM21" s="119">
+      <c r="AM21" s="72">
         <f t="shared" si="26"/>
         <v>2.0361841970442744E-4</v>
       </c>
-      <c r="AN21" s="120">
+      <c r="AN21" s="73">
         <f t="shared" si="26"/>
         <v>2643.3690078308032</v>
       </c>
-      <c r="AO21" s="119">
+      <c r="AO21" s="72">
         <f t="shared" si="26"/>
         <v>3.8071232489170269E-4</v>
       </c>
-      <c r="AP21" s="120">
+      <c r="AP21" s="73">
         <f t="shared" si="26"/>
         <v>1199.8850825863112</v>
       </c>
-      <c r="AQ21" s="116">
+      <c r="AQ21" s="69">
         <f t="shared" si="26"/>
         <v>8.4147267923891469E-4</v>
       </c>
@@ -8446,7 +7421,7 @@
         <v>7.0769172159793113E-4</v>
       </c>
     </row>
-    <row r="23" spans="1:43" ht="86" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:43" ht="52" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="14">
         <v>60010</v>
       </c>
@@ -8531,21 +7506,21 @@
         <f t="shared" si="25"/>
         <v>9.0061269700602567E-4</v>
       </c>
-      <c r="AG23" s="121"/>
-      <c r="AJ23" s="86" t="s">
+      <c r="AG23" s="74"/>
+      <c r="AJ23" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="AK23" s="98" t="s">
-        <v>12</v>
-      </c>
-      <c r="AL23" s="87" t="s">
-        <v>18</v>
-      </c>
-      <c r="AM23" s="87" t="s">
-        <v>13</v>
-      </c>
-      <c r="AN23" s="51" t="s">
-        <v>19</v>
+      <c r="AK23" s="121" t="s">
+        <v>10</v>
+      </c>
+      <c r="AL23" s="121" t="s">
+        <v>32</v>
+      </c>
+      <c r="AM23" s="121" t="s">
+        <v>11</v>
+      </c>
+      <c r="AN23" s="83" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:43" x14ac:dyDescent="0.2">
@@ -8633,24 +7608,24 @@
         <f t="shared" si="25"/>
         <v>7.2280498190735519E-4</v>
       </c>
-      <c r="AG24" s="121"/>
-      <c r="AJ24" s="88">
+      <c r="AG24" s="74"/>
+      <c r="AJ24" s="58">
         <v>1</v>
       </c>
-      <c r="AK24" s="89">
+      <c r="AK24" s="59">
         <f>AF21</f>
         <v>69067.947113738453</v>
       </c>
-      <c r="AL24" s="90">
+      <c r="AL24" s="60">
         <f>AG21</f>
         <v>1.4478604505135245E-5</v>
       </c>
-      <c r="AM24" s="91">
+      <c r="AM24" s="61">
         <v>0</v>
       </c>
-      <c r="AN24" s="99">
-        <f>(1-AM24/AL24)*100</f>
-        <v>100</v>
+      <c r="AN24" s="79">
+        <f>(AM24/AL24)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:43" x14ac:dyDescent="0.2">
@@ -8738,25 +7713,25 @@
         <f t="shared" si="25"/>
         <v>9.3564150682842891E-4</v>
       </c>
-      <c r="AG25" s="121"/>
-      <c r="AJ25" s="92">
+      <c r="AG25" s="74"/>
+      <c r="AJ25" s="62">
         <v>2</v>
       </c>
-      <c r="AK25" s="93">
+      <c r="AK25" s="63">
         <f>AH21</f>
         <v>14433.018063229736</v>
       </c>
-      <c r="AL25" s="94">
+      <c r="AL25" s="64">
         <f>AI21</f>
         <v>7.2477616519394961E-5</v>
       </c>
-      <c r="AM25" s="94">
+      <c r="AM25" s="64">
         <f>AL25-$AL$24</f>
         <v>5.7999012014259716E-5</v>
       </c>
-      <c r="AN25" s="99">
-        <f t="shared" ref="AN25:AN29" si="27">(1-AM25/AL25)*100</f>
-        <v>19.976656518858871</v>
+      <c r="AN25" s="79">
+        <f t="shared" ref="AN25:AN29" si="27">(AM25/AL25)</f>
+        <v>0.80023343481141129</v>
       </c>
     </row>
     <row r="26" spans="1:43" x14ac:dyDescent="0.2">
@@ -8844,25 +7819,25 @@
         <f t="shared" si="25"/>
         <v>9.0477865760880852E-4</v>
       </c>
-      <c r="AG26" s="121"/>
-      <c r="AJ26" s="92">
+      <c r="AG26" s="74"/>
+      <c r="AJ26" s="62">
         <v>4</v>
       </c>
-      <c r="AK26" s="93">
+      <c r="AK26" s="63">
         <f>AJ21</f>
         <v>11753.427180640771</v>
       </c>
-      <c r="AL26" s="94">
+      <c r="AL26" s="64">
         <f>AK21</f>
         <v>9.5521344662828086E-5</v>
       </c>
-      <c r="AM26" s="94">
+      <c r="AM26" s="64">
         <f t="shared" ref="AM26:AM29" si="28">AL26-$AL$24</f>
         <v>8.1042740157692841E-5</v>
       </c>
-      <c r="AN26" s="99">
+      <c r="AN26" s="79">
         <f t="shared" si="27"/>
-        <v>15.157454657115565</v>
+        <v>0.84842545342884435</v>
       </c>
     </row>
     <row r="27" spans="1:43" x14ac:dyDescent="0.2">
@@ -8950,25 +7925,25 @@
         <f t="shared" si="25"/>
         <v>8.8658895571071272E-4</v>
       </c>
-      <c r="AG27" s="121"/>
-      <c r="AJ27" s="92">
+      <c r="AG27" s="74"/>
+      <c r="AJ27" s="62">
         <v>8</v>
       </c>
-      <c r="AK27" s="93">
+      <c r="AK27" s="63">
         <f>AL21</f>
         <v>5012.6166532646475</v>
       </c>
-      <c r="AL27" s="94">
+      <c r="AL27" s="64">
         <f>AM21</f>
         <v>2.0361841970442744E-4</v>
       </c>
-      <c r="AM27" s="94">
+      <c r="AM27" s="64">
         <f t="shared" si="28"/>
         <v>1.8913981519929219E-4</v>
       </c>
-      <c r="AN27" s="99">
+      <c r="AN27" s="79">
         <f t="shared" si="27"/>
-        <v>7.1106555714126385</v>
+        <v>0.92889344428587362</v>
       </c>
     </row>
     <row r="28" spans="1:43" x14ac:dyDescent="0.2">
@@ -9056,25 +8031,25 @@
         <f t="shared" si="25"/>
         <v>7.4853182678589819E-4</v>
       </c>
-      <c r="AG28" s="121"/>
-      <c r="AJ28" s="92">
+      <c r="AG28" s="74"/>
+      <c r="AJ28" s="62">
         <v>16</v>
       </c>
-      <c r="AK28" s="93">
+      <c r="AK28" s="63">
         <f>AN21</f>
         <v>2643.3690078308032</v>
       </c>
-      <c r="AL28" s="94">
+      <c r="AL28" s="64">
         <f>AO21</f>
         <v>3.8071232489170269E-4</v>
       </c>
-      <c r="AM28" s="94">
+      <c r="AM28" s="64">
         <f t="shared" si="28"/>
         <v>3.6623372038656744E-4</v>
       </c>
-      <c r="AN28" s="99">
+      <c r="AN28" s="79">
         <f t="shared" si="27"/>
-        <v>3.8030301512444686</v>
+        <v>0.96196969848755531</v>
       </c>
     </row>
     <row r="29" spans="1:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -9162,133 +8137,133 @@
         <f t="shared" si="25"/>
         <v>8.9223679961986406E-4</v>
       </c>
-      <c r="AJ29" s="95">
+      <c r="AJ29" s="65">
         <v>32</v>
       </c>
-      <c r="AK29" s="96">
+      <c r="AK29" s="66">
         <f>AP21</f>
         <v>1199.8850825863112</v>
       </c>
-      <c r="AL29" s="97">
+      <c r="AL29" s="67">
         <f>AQ21</f>
         <v>8.4147267923891469E-4</v>
       </c>
-      <c r="AM29" s="97">
+      <c r="AM29" s="67">
         <f t="shared" si="28"/>
         <v>8.2699407473377944E-4</v>
       </c>
-      <c r="AN29" s="108">
+      <c r="AN29" s="81">
         <f t="shared" si="27"/>
-        <v>1.7206268084937304</v>
+        <v>0.9827937319150627</v>
       </c>
     </row>
     <row r="32" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A32" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="B32" s="45"/>
-      <c r="C32" s="46"/>
-      <c r="D32" s="46"/>
-      <c r="E32" s="46"/>
-      <c r="F32" s="46"/>
-      <c r="G32" s="46"/>
-      <c r="H32" s="46"/>
-      <c r="I32" s="46"/>
-      <c r="J32" s="46"/>
-      <c r="K32" s="46"/>
-      <c r="L32" s="47"/>
-      <c r="Q32" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="R32" s="45"/>
-      <c r="S32" s="46"/>
-      <c r="T32" s="46"/>
-      <c r="U32" s="46"/>
-      <c r="V32" s="46"/>
-      <c r="W32" s="46"/>
-      <c r="X32" s="46"/>
-      <c r="Y32" s="46"/>
-      <c r="Z32" s="46"/>
-      <c r="AA32" s="46"/>
-      <c r="AB32" s="47"/>
-      <c r="AF32" s="109" t="s">
-        <v>15</v>
-      </c>
-      <c r="AG32" s="110"/>
-      <c r="AH32" s="103"/>
-      <c r="AI32" s="103"/>
-      <c r="AJ32" s="103"/>
-      <c r="AK32" s="103"/>
-      <c r="AL32" s="103"/>
-      <c r="AM32" s="103"/>
-      <c r="AN32" s="103"/>
-      <c r="AO32" s="103"/>
-      <c r="AP32" s="103"/>
-      <c r="AQ32" s="104"/>
+      <c r="A32" s="84" t="s">
+        <v>13</v>
+      </c>
+      <c r="B32" s="85"/>
+      <c r="C32" s="86"/>
+      <c r="D32" s="86"/>
+      <c r="E32" s="86"/>
+      <c r="F32" s="86"/>
+      <c r="G32" s="86"/>
+      <c r="H32" s="86"/>
+      <c r="I32" s="86"/>
+      <c r="J32" s="86"/>
+      <c r="K32" s="86"/>
+      <c r="L32" s="87"/>
+      <c r="Q32" s="84" t="s">
+        <v>13</v>
+      </c>
+      <c r="R32" s="85"/>
+      <c r="S32" s="86"/>
+      <c r="T32" s="86"/>
+      <c r="U32" s="86"/>
+      <c r="V32" s="86"/>
+      <c r="W32" s="86"/>
+      <c r="X32" s="86"/>
+      <c r="Y32" s="86"/>
+      <c r="Z32" s="86"/>
+      <c r="AA32" s="86"/>
+      <c r="AB32" s="87"/>
+      <c r="AF32" s="97" t="s">
+        <v>13</v>
+      </c>
+      <c r="AG32" s="98"/>
+      <c r="AH32" s="89"/>
+      <c r="AI32" s="89"/>
+      <c r="AJ32" s="89"/>
+      <c r="AK32" s="89"/>
+      <c r="AL32" s="89"/>
+      <c r="AM32" s="89"/>
+      <c r="AN32" s="89"/>
+      <c r="AO32" s="89"/>
+      <c r="AP32" s="89"/>
+      <c r="AQ32" s="90"/>
     </row>
     <row r="33" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A33" s="48" t="s">
+      <c r="A33" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="B33" s="47"/>
-      <c r="C33" s="49" t="s">
+      <c r="B33" s="87"/>
+      <c r="C33" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="D33" s="50"/>
-      <c r="E33" s="44" t="s">
+      <c r="D33" s="93"/>
+      <c r="E33" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="F33" s="50"/>
-      <c r="G33" s="44" t="s">
+      <c r="F33" s="93"/>
+      <c r="G33" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="H33" s="50"/>
-      <c r="I33" s="44" t="s">
+      <c r="H33" s="93"/>
+      <c r="I33" s="84" t="s">
         <v>5</v>
       </c>
-      <c r="J33" s="50"/>
-      <c r="K33" s="44" t="s">
+      <c r="J33" s="93"/>
+      <c r="K33" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="L33" s="50"/>
-      <c r="Q33" s="44" t="s">
+      <c r="L33" s="93"/>
+      <c r="Q33" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="R33" s="50"/>
-      <c r="S33" s="44" t="s">
+      <c r="R33" s="93"/>
+      <c r="S33" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="T33" s="50"/>
-      <c r="U33" s="44" t="s">
+      <c r="T33" s="93"/>
+      <c r="U33" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="V33" s="50"/>
-      <c r="W33" s="44" t="s">
+      <c r="V33" s="93"/>
+      <c r="W33" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="X33" s="50"/>
-      <c r="Y33" s="44" t="s">
+      <c r="X33" s="93"/>
+      <c r="Y33" s="84" t="s">
         <v>5</v>
       </c>
-      <c r="Z33" s="50"/>
-      <c r="AA33" s="44" t="s">
+      <c r="Z33" s="93"/>
+      <c r="AA33" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="AB33" s="50"/>
-      <c r="AF33" s="105" t="s">
+      <c r="AB33" s="93"/>
+      <c r="AF33" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="AG33" s="106"/>
-      <c r="AH33" s="106"/>
-      <c r="AI33" s="106"/>
-      <c r="AJ33" s="106"/>
-      <c r="AK33" s="106"/>
-      <c r="AL33" s="106"/>
-      <c r="AM33" s="106"/>
-      <c r="AN33" s="106"/>
-      <c r="AO33" s="106"/>
-      <c r="AP33" s="106"/>
-      <c r="AQ33" s="107"/>
+      <c r="AG33" s="95"/>
+      <c r="AH33" s="95"/>
+      <c r="AI33" s="95"/>
+      <c r="AJ33" s="95"/>
+      <c r="AK33" s="95"/>
+      <c r="AL33" s="95"/>
+      <c r="AM33" s="95"/>
+      <c r="AN33" s="95"/>
+      <c r="AO33" s="95"/>
+      <c r="AP33" s="95"/>
+      <c r="AQ33" s="96"/>
     </row>
     <row r="34" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
@@ -9363,32 +8338,32 @@
       <c r="AB34" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="AF34" s="105">
+      <c r="AF34" s="94">
         <v>1</v>
       </c>
-      <c r="AG34" s="106"/>
-      <c r="AH34" s="105">
+      <c r="AG34" s="95"/>
+      <c r="AH34" s="94">
         <v>2</v>
       </c>
-      <c r="AI34" s="107"/>
-      <c r="AJ34" s="105">
+      <c r="AI34" s="96"/>
+      <c r="AJ34" s="94">
         <v>4</v>
       </c>
-      <c r="AK34" s="107"/>
-      <c r="AL34" s="105">
+      <c r="AK34" s="96"/>
+      <c r="AL34" s="94">
         <v>8</v>
       </c>
-      <c r="AM34" s="107"/>
-      <c r="AN34" s="105">
+      <c r="AM34" s="96"/>
+      <c r="AN34" s="94">
         <v>16</v>
       </c>
-      <c r="AO34" s="107"/>
-      <c r="AP34" s="105">
+      <c r="AO34" s="96"/>
+      <c r="AP34" s="94">
         <v>32</v>
       </c>
-      <c r="AQ34" s="107"/>
+      <c r="AQ34" s="96"/>
     </row>
-    <row r="35" spans="1:43" ht="34" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:43" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="5">
         <v>60003</v>
       </c>
@@ -9473,41 +8448,41 @@
         <f t="shared" si="25"/>
         <v>1.5384290918519171E-5</v>
       </c>
-      <c r="AF35" s="111" t="s">
-        <v>12</v>
-      </c>
-      <c r="AG35" s="112" t="s">
-        <v>13</v>
-      </c>
-      <c r="AH35" s="111" t="s">
-        <v>12</v>
-      </c>
-      <c r="AI35" s="112" t="s">
-        <v>13</v>
-      </c>
-      <c r="AJ35" s="111" t="s">
-        <v>12</v>
-      </c>
-      <c r="AK35" s="112" t="s">
-        <v>13</v>
-      </c>
-      <c r="AL35" s="113" t="s">
-        <v>12</v>
-      </c>
-      <c r="AM35" s="114" t="s">
-        <v>13</v>
-      </c>
-      <c r="AN35" s="111" t="s">
-        <v>12</v>
-      </c>
-      <c r="AO35" s="112" t="s">
-        <v>13</v>
-      </c>
-      <c r="AP35" s="111" t="s">
-        <v>12</v>
-      </c>
-      <c r="AQ35" s="112" t="s">
-        <v>13</v>
+      <c r="AF35" s="119" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG35" s="120" t="s">
+        <v>11</v>
+      </c>
+      <c r="AH35" s="119" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI35" s="120" t="s">
+        <v>11</v>
+      </c>
+      <c r="AJ35" s="119" t="s">
+        <v>10</v>
+      </c>
+      <c r="AK35" s="120" t="s">
+        <v>11</v>
+      </c>
+      <c r="AL35" s="119" t="s">
+        <v>10</v>
+      </c>
+      <c r="AM35" s="120" t="s">
+        <v>11</v>
+      </c>
+      <c r="AN35" s="119" t="s">
+        <v>10</v>
+      </c>
+      <c r="AO35" s="120" t="s">
+        <v>11</v>
+      </c>
+      <c r="AP35" s="119" t="s">
+        <v>10</v>
+      </c>
+      <c r="AQ35" s="120" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="36" spans="1:43" x14ac:dyDescent="0.2">
@@ -9595,51 +8570,51 @@
         <f t="shared" si="25"/>
         <v>1.5375732872002516E-5</v>
       </c>
-      <c r="AF36" s="115">
+      <c r="AF36" s="68">
         <f t="shared" si="26"/>
         <v>68984.73055637347</v>
       </c>
-      <c r="AG36" s="119">
+      <c r="AG36" s="72">
         <f t="shared" si="26"/>
         <v>1.4496050989866831E-5</v>
       </c>
-      <c r="AH36" s="120">
+      <c r="AH36" s="73">
         <f t="shared" si="26"/>
         <v>65956.201611312412</v>
       </c>
-      <c r="AI36" s="119">
+      <c r="AI36" s="72">
         <f t="shared" si="26"/>
         <v>1.5162579572102828E-5</v>
       </c>
-      <c r="AJ36" s="120">
+      <c r="AJ36" s="73">
         <f t="shared" si="26"/>
         <v>65014.947821081711</v>
       </c>
-      <c r="AK36" s="119">
+      <c r="AK36" s="72">
         <f t="shared" si="26"/>
         <v>1.5382669078129106E-5</v>
       </c>
-      <c r="AL36" s="120">
+      <c r="AL36" s="73">
         <f t="shared" si="26"/>
         <v>64511.601833185101</v>
       </c>
-      <c r="AM36" s="119">
+      <c r="AM36" s="72">
         <f t="shared" si="26"/>
         <v>1.5501867659807683E-5</v>
       </c>
-      <c r="AN36" s="120">
+      <c r="AN36" s="73">
         <f t="shared" si="26"/>
         <v>63561.553788044759</v>
       </c>
-      <c r="AO36" s="119">
+      <c r="AO36" s="72">
         <f t="shared" si="26"/>
         <v>1.5755330788038454E-5</v>
       </c>
-      <c r="AP36" s="120">
+      <c r="AP36" s="73">
         <f t="shared" si="26"/>
         <v>64158.625202927193</v>
       </c>
-      <c r="AQ36" s="116">
+      <c r="AQ36" s="69">
         <f t="shared" si="26"/>
         <v>1.560784227475053E-5</v>
       </c>
@@ -9730,7 +8705,7 @@
         <v>1.7424216641570874E-5</v>
       </c>
     </row>
-    <row r="38" spans="1:43" ht="86" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:43" ht="52" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="14">
         <v>60008</v>
       </c>
@@ -9815,25 +8790,25 @@
         <f t="shared" si="25"/>
         <v>1.5349933277785885E-5</v>
       </c>
-      <c r="AG38" s="121"/>
-      <c r="AJ38" s="86" t="s">
+      <c r="AG38" s="74"/>
+      <c r="AJ38" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="AK38" s="98" t="s">
-        <v>12</v>
-      </c>
-      <c r="AL38" s="87" t="s">
-        <v>18</v>
-      </c>
-      <c r="AM38" s="87" t="s">
-        <v>13</v>
-      </c>
-      <c r="AN38" s="51" t="s">
-        <v>19</v>
-      </c>
-      <c r="AO38" s="122"/>
-      <c r="AP38" s="122" t="s">
-        <v>20</v>
+      <c r="AK38" s="121" t="s">
+        <v>10</v>
+      </c>
+      <c r="AL38" s="121" t="s">
+        <v>32</v>
+      </c>
+      <c r="AM38" s="121" t="s">
+        <v>11</v>
+      </c>
+      <c r="AN38" s="83" t="s">
+        <v>31</v>
+      </c>
+      <c r="AO38" s="75"/>
+      <c r="AP38" s="75" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="39" spans="1:43" x14ac:dyDescent="0.2">
@@ -9921,24 +8896,24 @@
         <f t="shared" si="25"/>
         <v>1.5368143134840636E-5</v>
       </c>
-      <c r="AG39" s="121"/>
-      <c r="AJ39" s="88">
+      <c r="AG39" s="74"/>
+      <c r="AJ39" s="58">
         <v>1</v>
       </c>
-      <c r="AK39" s="89">
+      <c r="AK39" s="59">
         <f>AF36</f>
         <v>68984.73055637347</v>
       </c>
-      <c r="AL39" s="90">
+      <c r="AL39" s="60">
         <f>AG36</f>
         <v>1.4496050989866831E-5</v>
       </c>
-      <c r="AM39" s="91">
+      <c r="AM39" s="61">
         <v>0</v>
       </c>
-      <c r="AN39" s="99">
-        <f>($AL$39/AL39)*100</f>
-        <v>100</v>
+      <c r="AN39" s="79">
+        <f>(AM39/AL39)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:43" x14ac:dyDescent="0.2">
@@ -10026,25 +9001,25 @@
         <f t="shared" si="25"/>
         <v>1.5490032249915319E-5</v>
       </c>
-      <c r="AG40" s="121"/>
-      <c r="AJ40" s="92">
+      <c r="AG40" s="74"/>
+      <c r="AJ40" s="62">
         <v>2</v>
       </c>
-      <c r="AK40" s="93">
+      <c r="AK40" s="63">
         <f>AH36</f>
         <v>65956.201611312412</v>
       </c>
-      <c r="AL40" s="94">
+      <c r="AL40" s="64">
         <f>AI36</f>
         <v>1.5162579572102828E-5</v>
       </c>
-      <c r="AM40" s="94">
+      <c r="AM40" s="64">
         <f>AL40-$AL$39</f>
         <v>6.6652858223599695E-7</v>
       </c>
-      <c r="AN40" s="99">
-        <f t="shared" ref="AN40:AN44" si="29">($AL$39/AL40)*100</f>
-        <v>95.604121455281117</v>
+      <c r="AN40" s="79">
+        <f t="shared" ref="AN40:AN44" si="29">(AM40/AL40)</f>
+        <v>4.3958785447188863E-2</v>
       </c>
     </row>
     <row r="41" spans="1:43" x14ac:dyDescent="0.2">
@@ -10132,25 +9107,25 @@
         <f t="shared" si="25"/>
         <v>1.5441409890177406E-5</v>
       </c>
-      <c r="AG41" s="121"/>
-      <c r="AJ41" s="92">
+      <c r="AG41" s="74"/>
+      <c r="AJ41" s="62">
         <v>4</v>
       </c>
-      <c r="AK41" s="93">
+      <c r="AK41" s="63">
         <f>AJ36</f>
         <v>65014.947821081711</v>
       </c>
-      <c r="AL41" s="94">
+      <c r="AL41" s="64">
         <f>AK36</f>
         <v>1.5382669078129106E-5</v>
       </c>
-      <c r="AM41" s="94">
+      <c r="AM41" s="64">
         <f t="shared" ref="AM41:AM44" si="30">AL41-$AL$39</f>
         <v>8.8661808826227494E-7</v>
       </c>
-      <c r="AN41" s="99">
+      <c r="AN41" s="79">
         <f t="shared" si="29"/>
-        <v>94.236253255146352</v>
+        <v>5.7637467448536477E-2</v>
       </c>
     </row>
     <row r="42" spans="1:43" x14ac:dyDescent="0.2">
@@ -10238,25 +9213,25 @@
         <f t="shared" si="25"/>
         <v>1.5397536292532483E-5</v>
       </c>
-      <c r="AG42" s="121"/>
-      <c r="AJ42" s="92">
+      <c r="AG42" s="74"/>
+      <c r="AJ42" s="62">
         <v>8</v>
       </c>
-      <c r="AK42" s="93">
+      <c r="AK42" s="63">
         <f>AL36</f>
         <v>64511.601833185101</v>
       </c>
-      <c r="AL42" s="94">
+      <c r="AL42" s="64">
         <f>AM36</f>
         <v>1.5501867659807683E-5</v>
       </c>
-      <c r="AM42" s="94">
+      <c r="AM42" s="64">
         <f t="shared" si="30"/>
         <v>1.005816669940852E-6</v>
       </c>
-      <c r="AN42" s="99">
+      <c r="AN42" s="79">
         <f t="shared" si="29"/>
-        <v>93.511642003313739</v>
+        <v>6.4883579966862531E-2</v>
       </c>
     </row>
     <row r="43" spans="1:43" x14ac:dyDescent="0.2">
@@ -10344,25 +9319,25 @@
         <f t="shared" si="25"/>
         <v>1.5505566868549119E-5</v>
       </c>
-      <c r="AG43" s="121"/>
-      <c r="AJ43" s="92">
+      <c r="AG43" s="74"/>
+      <c r="AJ43" s="62">
         <v>16</v>
       </c>
-      <c r="AK43" s="93">
+      <c r="AK43" s="63">
         <f>AN36</f>
         <v>63561.553788044759</v>
       </c>
-      <c r="AL43" s="94">
+      <c r="AL43" s="64">
         <f>AO36</f>
         <v>1.5755330788038454E-5</v>
       </c>
-      <c r="AM43" s="94">
+      <c r="AM43" s="64">
         <f t="shared" si="30"/>
         <v>1.2592797981716238E-6</v>
       </c>
-      <c r="AN43" s="99">
+      <c r="AN43" s="79">
         <f t="shared" si="29"/>
-        <v>92.007277948567875</v>
+        <v>7.9927220514321218E-2</v>
       </c>
     </row>
     <row r="44" spans="1:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -10450,133 +9425,133 @@
         <f t="shared" si="25"/>
         <v>1.5341560601611886E-5</v>
       </c>
-      <c r="AJ44" s="95">
+      <c r="AJ44" s="65">
         <v>32</v>
       </c>
-      <c r="AK44" s="96">
+      <c r="AK44" s="66">
         <f>AP36</f>
         <v>64158.625202927193</v>
       </c>
-      <c r="AL44" s="97">
+      <c r="AL44" s="67">
         <f>AQ36</f>
         <v>1.560784227475053E-5</v>
       </c>
-      <c r="AM44" s="97">
+      <c r="AM44" s="67">
         <f t="shared" si="30"/>
         <v>1.1117912848836996E-6</v>
       </c>
-      <c r="AN44" s="108">
+      <c r="AN44" s="81">
         <f t="shared" si="29"/>
-        <v>92.876713735874361</v>
+        <v>7.1232862641256417E-2</v>
       </c>
     </row>
     <row r="47" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A47" s="44" t="s">
-        <v>16</v>
-      </c>
-      <c r="B47" s="45"/>
-      <c r="C47" s="46"/>
-      <c r="D47" s="46"/>
-      <c r="E47" s="46"/>
-      <c r="F47" s="46"/>
-      <c r="G47" s="46"/>
-      <c r="H47" s="46"/>
-      <c r="I47" s="46"/>
-      <c r="J47" s="46"/>
-      <c r="K47" s="46"/>
-      <c r="L47" s="47"/>
-      <c r="Q47" s="44" t="s">
-        <v>16</v>
-      </c>
-      <c r="R47" s="45"/>
-      <c r="S47" s="46"/>
-      <c r="T47" s="46"/>
-      <c r="U47" s="46"/>
-      <c r="V47" s="46"/>
-      <c r="W47" s="46"/>
-      <c r="X47" s="46"/>
-      <c r="Y47" s="46"/>
-      <c r="Z47" s="46"/>
-      <c r="AA47" s="46"/>
-      <c r="AB47" s="47"/>
-      <c r="AF47" s="109" t="s">
-        <v>16</v>
-      </c>
-      <c r="AG47" s="110"/>
-      <c r="AH47" s="103"/>
-      <c r="AI47" s="103"/>
-      <c r="AJ47" s="103"/>
-      <c r="AK47" s="103"/>
-      <c r="AL47" s="103"/>
-      <c r="AM47" s="103"/>
-      <c r="AN47" s="103"/>
-      <c r="AO47" s="103"/>
-      <c r="AP47" s="103"/>
-      <c r="AQ47" s="104"/>
+      <c r="A47" s="84" t="s">
+        <v>14</v>
+      </c>
+      <c r="B47" s="85"/>
+      <c r="C47" s="86"/>
+      <c r="D47" s="86"/>
+      <c r="E47" s="86"/>
+      <c r="F47" s="86"/>
+      <c r="G47" s="86"/>
+      <c r="H47" s="86"/>
+      <c r="I47" s="86"/>
+      <c r="J47" s="86"/>
+      <c r="K47" s="86"/>
+      <c r="L47" s="87"/>
+      <c r="Q47" s="84" t="s">
+        <v>14</v>
+      </c>
+      <c r="R47" s="85"/>
+      <c r="S47" s="86"/>
+      <c r="T47" s="86"/>
+      <c r="U47" s="86"/>
+      <c r="V47" s="86"/>
+      <c r="W47" s="86"/>
+      <c r="X47" s="86"/>
+      <c r="Y47" s="86"/>
+      <c r="Z47" s="86"/>
+      <c r="AA47" s="86"/>
+      <c r="AB47" s="87"/>
+      <c r="AF47" s="97" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG47" s="98"/>
+      <c r="AH47" s="89"/>
+      <c r="AI47" s="89"/>
+      <c r="AJ47" s="89"/>
+      <c r="AK47" s="89"/>
+      <c r="AL47" s="89"/>
+      <c r="AM47" s="89"/>
+      <c r="AN47" s="89"/>
+      <c r="AO47" s="89"/>
+      <c r="AP47" s="89"/>
+      <c r="AQ47" s="90"/>
     </row>
     <row r="48" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A48" s="48" t="s">
+      <c r="A48" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="B48" s="47"/>
-      <c r="C48" s="49" t="s">
+      <c r="B48" s="87"/>
+      <c r="C48" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="D48" s="50"/>
-      <c r="E48" s="44" t="s">
+      <c r="D48" s="93"/>
+      <c r="E48" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="F48" s="50"/>
-      <c r="G48" s="44" t="s">
+      <c r="F48" s="93"/>
+      <c r="G48" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="H48" s="50"/>
-      <c r="I48" s="44" t="s">
+      <c r="H48" s="93"/>
+      <c r="I48" s="84" t="s">
         <v>5</v>
       </c>
-      <c r="J48" s="50"/>
-      <c r="K48" s="44" t="s">
+      <c r="J48" s="93"/>
+      <c r="K48" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="L48" s="50"/>
-      <c r="Q48" s="44" t="s">
+      <c r="L48" s="93"/>
+      <c r="Q48" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="R48" s="50"/>
-      <c r="S48" s="44" t="s">
+      <c r="R48" s="93"/>
+      <c r="S48" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="T48" s="50"/>
-      <c r="U48" s="44" t="s">
+      <c r="T48" s="93"/>
+      <c r="U48" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="V48" s="50"/>
-      <c r="W48" s="44" t="s">
+      <c r="V48" s="93"/>
+      <c r="W48" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="X48" s="50"/>
-      <c r="Y48" s="44" t="s">
+      <c r="X48" s="93"/>
+      <c r="Y48" s="84" t="s">
         <v>5</v>
       </c>
-      <c r="Z48" s="50"/>
-      <c r="AA48" s="44" t="s">
+      <c r="Z48" s="93"/>
+      <c r="AA48" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="AB48" s="50"/>
-      <c r="AF48" s="105" t="s">
+      <c r="AB48" s="93"/>
+      <c r="AF48" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="AG48" s="106"/>
-      <c r="AH48" s="106"/>
-      <c r="AI48" s="106"/>
-      <c r="AJ48" s="106"/>
-      <c r="AK48" s="106"/>
-      <c r="AL48" s="106"/>
-      <c r="AM48" s="106"/>
-      <c r="AN48" s="106"/>
-      <c r="AO48" s="106"/>
-      <c r="AP48" s="106"/>
-      <c r="AQ48" s="107"/>
+      <c r="AG48" s="95"/>
+      <c r="AH48" s="95"/>
+      <c r="AI48" s="95"/>
+      <c r="AJ48" s="95"/>
+      <c r="AK48" s="95"/>
+      <c r="AL48" s="95"/>
+      <c r="AM48" s="95"/>
+      <c r="AN48" s="95"/>
+      <c r="AO48" s="95"/>
+      <c r="AP48" s="95"/>
+      <c r="AQ48" s="96"/>
     </row>
     <row r="49" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
@@ -10651,32 +9626,32 @@
       <c r="AB49" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="AF49" s="105">
+      <c r="AF49" s="94">
         <v>1</v>
       </c>
-      <c r="AG49" s="106"/>
-      <c r="AH49" s="105">
+      <c r="AG49" s="95"/>
+      <c r="AH49" s="94">
         <v>2</v>
       </c>
-      <c r="AI49" s="107"/>
-      <c r="AJ49" s="105">
+      <c r="AI49" s="96"/>
+      <c r="AJ49" s="94">
         <v>4</v>
       </c>
-      <c r="AK49" s="107"/>
-      <c r="AL49" s="105">
+      <c r="AK49" s="96"/>
+      <c r="AL49" s="94">
         <v>8</v>
       </c>
-      <c r="AM49" s="107"/>
-      <c r="AN49" s="105">
+      <c r="AM49" s="96"/>
+      <c r="AN49" s="94">
         <v>16</v>
       </c>
-      <c r="AO49" s="107"/>
-      <c r="AP49" s="105">
+      <c r="AO49" s="96"/>
+      <c r="AP49" s="94">
         <v>32</v>
       </c>
-      <c r="AQ49" s="107"/>
+      <c r="AQ49" s="96"/>
     </row>
-    <row r="50" spans="1:43" ht="34" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:43" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="5">
         <v>60010</v>
       </c>
@@ -10761,41 +9736,41 @@
         <f t="shared" si="25"/>
         <v>6.3510941960038059</v>
       </c>
-      <c r="AF50" s="111" t="s">
-        <v>12</v>
-      </c>
-      <c r="AG50" s="112" t="s">
-        <v>13</v>
-      </c>
-      <c r="AH50" s="111" t="s">
-        <v>12</v>
-      </c>
-      <c r="AI50" s="112" t="s">
-        <v>13</v>
-      </c>
-      <c r="AJ50" s="111" t="s">
-        <v>12</v>
-      </c>
-      <c r="AK50" s="112" t="s">
-        <v>13</v>
-      </c>
-      <c r="AL50" s="113" t="s">
-        <v>12</v>
-      </c>
-      <c r="AM50" s="114" t="s">
-        <v>13</v>
-      </c>
-      <c r="AN50" s="111" t="s">
-        <v>12</v>
-      </c>
-      <c r="AO50" s="112" t="s">
-        <v>13</v>
-      </c>
-      <c r="AP50" s="111" t="s">
-        <v>12</v>
-      </c>
-      <c r="AQ50" s="112" t="s">
-        <v>13</v>
+      <c r="AF50" s="119" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG50" s="120" t="s">
+        <v>11</v>
+      </c>
+      <c r="AH50" s="119" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI50" s="120" t="s">
+        <v>11</v>
+      </c>
+      <c r="AJ50" s="119" t="s">
+        <v>10</v>
+      </c>
+      <c r="AK50" s="120" t="s">
+        <v>11</v>
+      </c>
+      <c r="AL50" s="119" t="s">
+        <v>10</v>
+      </c>
+      <c r="AM50" s="120" t="s">
+        <v>11</v>
+      </c>
+      <c r="AN50" s="119" t="s">
+        <v>10</v>
+      </c>
+      <c r="AO50" s="120" t="s">
+        <v>11</v>
+      </c>
+      <c r="AP50" s="119" t="s">
+        <v>10</v>
+      </c>
+      <c r="AQ50" s="120" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="51" spans="1:43" x14ac:dyDescent="0.2">
@@ -10883,51 +9858,51 @@
         <f t="shared" si="25"/>
         <v>1.0615267688283225</v>
       </c>
-      <c r="AF51" s="115">
+      <c r="AF51" s="68">
         <f t="shared" si="26"/>
         <v>28293.212870621948</v>
       </c>
-      <c r="AG51" s="119">
+      <c r="AG51" s="72">
         <f t="shared" si="26"/>
         <v>3.5415977327472022E-5</v>
       </c>
-      <c r="AH51" s="120">
+      <c r="AH51" s="73">
         <f t="shared" si="26"/>
         <v>9072.0468075397221</v>
       </c>
-      <c r="AI51" s="119">
+      <c r="AI51" s="72">
         <f t="shared" si="26"/>
         <v>1.1025561724815848E-4</v>
       </c>
-      <c r="AJ51" s="120">
+      <c r="AJ51" s="73">
         <f t="shared" si="26"/>
         <v>8374.7314497639618</v>
       </c>
-      <c r="AK51" s="119">
+      <c r="AK51" s="72">
         <f t="shared" si="26"/>
         <v>1.1945953449271759E-4</v>
       </c>
-      <c r="AL51" s="120">
+      <c r="AL51" s="73">
         <f t="shared" si="26"/>
         <v>7036.4172249164285</v>
       </c>
-      <c r="AM51" s="119">
+      <c r="AM51" s="72">
         <f t="shared" si="26"/>
         <v>1.423395859474224E-4</v>
       </c>
-      <c r="AN51" s="120">
+      <c r="AN51" s="73">
         <f t="shared" si="26"/>
         <v>1.3675814829527202</v>
       </c>
-      <c r="AO51" s="120">
+      <c r="AO51" s="73">
         <f t="shared" si="26"/>
         <v>0.8045641259999462</v>
       </c>
-      <c r="AP51" s="120">
+      <c r="AP51" s="73">
         <f t="shared" si="26"/>
         <v>0.55993752329179092</v>
       </c>
-      <c r="AQ51" s="123">
+      <c r="AQ51" s="76">
         <f t="shared" si="26"/>
         <v>2.783335915311445</v>
       </c>
@@ -11018,7 +9993,7 @@
         <v>4.3273303558565051</v>
       </c>
     </row>
-    <row r="53" spans="1:43" ht="86" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:43" ht="52" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="14">
         <v>60006</v>
       </c>
@@ -11103,21 +10078,21 @@
         <f t="shared" si="25"/>
         <v>1.0928790881160579</v>
       </c>
-      <c r="AG53" s="121"/>
-      <c r="AJ53" s="86" t="s">
+      <c r="AG53" s="74"/>
+      <c r="AJ53" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="AK53" s="98" t="s">
-        <v>12</v>
-      </c>
-      <c r="AL53" s="87" t="s">
-        <v>18</v>
-      </c>
-      <c r="AM53" s="87" t="s">
-        <v>13</v>
-      </c>
-      <c r="AN53" s="51" t="s">
-        <v>19</v>
+      <c r="AK53" s="121" t="s">
+        <v>10</v>
+      </c>
+      <c r="AL53" s="121" t="s">
+        <v>32</v>
+      </c>
+      <c r="AM53" s="121" t="s">
+        <v>11</v>
+      </c>
+      <c r="AN53" s="83" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="54" spans="1:43" x14ac:dyDescent="0.2">
@@ -11205,24 +10180,24 @@
         <f t="shared" si="25"/>
         <v>6.4920034579641239</v>
       </c>
-      <c r="AG54" s="121"/>
-      <c r="AJ54" s="88">
+      <c r="AG54" s="74"/>
+      <c r="AJ54" s="58">
         <v>1</v>
       </c>
-      <c r="AK54" s="89">
+      <c r="AK54" s="59">
         <f>AF51</f>
         <v>28293.212870621948</v>
       </c>
-      <c r="AL54" s="90">
+      <c r="AL54" s="60">
         <f>AG51</f>
         <v>3.5415977327472022E-5</v>
       </c>
-      <c r="AM54" s="91">
+      <c r="AM54" s="61">
         <v>0</v>
       </c>
-      <c r="AN54" s="99">
-        <f>(1-AM54/AL54)*100</f>
-        <v>100</v>
+      <c r="AN54" s="79">
+        <f>(AM54/AL54)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:43" x14ac:dyDescent="0.2">
@@ -11310,25 +10285,25 @@
         <f t="shared" si="25"/>
         <v>1.574963953335955</v>
       </c>
-      <c r="AG55" s="121"/>
-      <c r="AJ55" s="92">
+      <c r="AG55" s="74"/>
+      <c r="AJ55" s="62">
         <v>2</v>
       </c>
-      <c r="AK55" s="93">
+      <c r="AK55" s="63">
         <f>AH51</f>
         <v>9072.0468075397221</v>
       </c>
-      <c r="AL55" s="94">
+      <c r="AL55" s="64">
         <f>AI51</f>
         <v>1.1025561724815848E-4</v>
       </c>
-      <c r="AM55" s="94">
+      <c r="AM55" s="64">
         <f>AL55-$AL$54</f>
         <v>7.4839639920686447E-5</v>
       </c>
-      <c r="AN55" s="99">
-        <f t="shared" ref="AN55:AN59" si="31">(1-AM55/AL55)*100</f>
-        <v>32.121698840757752</v>
+      <c r="AN55" s="79">
+        <f t="shared" ref="AN55:AN59" si="31">(AM55/AL55)</f>
+        <v>0.67878301159242249</v>
       </c>
     </row>
     <row r="56" spans="1:43" x14ac:dyDescent="0.2">
@@ -11416,25 +10391,25 @@
         <f t="shared" si="25"/>
         <v>2.0761542452014528</v>
       </c>
-      <c r="AG56" s="121"/>
-      <c r="AJ56" s="92">
+      <c r="AG56" s="74"/>
+      <c r="AJ56" s="62">
         <v>4</v>
       </c>
-      <c r="AK56" s="93">
+      <c r="AK56" s="63">
         <f>AJ51</f>
         <v>8374.7314497639618</v>
       </c>
-      <c r="AL56" s="94">
+      <c r="AL56" s="64">
         <f>AK51</f>
         <v>1.1945953449271759E-4</v>
       </c>
-      <c r="AM56" s="94">
+      <c r="AM56" s="64">
         <f t="shared" ref="AM56:AM59" si="32">AL56-$AL$54</f>
         <v>8.4043557165245562E-5</v>
       </c>
-      <c r="AN56" s="99">
+      <c r="AN56" s="79">
         <f t="shared" si="31"/>
-        <v>29.646840227416948</v>
+        <v>0.70353159772583052</v>
       </c>
     </row>
     <row r="57" spans="1:43" x14ac:dyDescent="0.2">
@@ -11522,25 +10497,25 @@
         <f t="shared" si="25"/>
         <v>2.1591734052111411</v>
       </c>
-      <c r="AG57" s="121"/>
-      <c r="AJ57" s="92">
+      <c r="AG57" s="74"/>
+      <c r="AJ57" s="62">
         <v>8</v>
       </c>
-      <c r="AK57" s="93">
+      <c r="AK57" s="63">
         <f>AL51</f>
         <v>7036.4172249164285</v>
       </c>
-      <c r="AL57" s="94">
+      <c r="AL57" s="64">
         <f>AM51</f>
         <v>1.423395859474224E-4</v>
       </c>
-      <c r="AM57" s="94">
+      <c r="AM57" s="64">
         <f t="shared" si="32"/>
         <v>1.0692360861995037E-4</v>
       </c>
-      <c r="AN57" s="99">
+      <c r="AN57" s="79">
         <f t="shared" si="31"/>
-        <v>24.881326646934355</v>
+        <v>0.75118673353065646</v>
       </c>
     </row>
     <row r="58" spans="1:43" x14ac:dyDescent="0.2">
@@ -11628,25 +10603,25 @@
         <f t="shared" si="25"/>
         <v>0.9559904534606205</v>
       </c>
-      <c r="AG58" s="121"/>
-      <c r="AJ58" s="92">
+      <c r="AG58" s="74"/>
+      <c r="AJ58" s="62">
         <v>16</v>
       </c>
-      <c r="AK58" s="93">
+      <c r="AK58" s="63">
         <f>AN51</f>
         <v>1.3675814829527202</v>
       </c>
-      <c r="AL58" s="94">
+      <c r="AL58" s="64">
         <f>AO51</f>
         <v>0.8045641259999462</v>
       </c>
-      <c r="AM58" s="94">
+      <c r="AM58" s="64">
         <f t="shared" si="32"/>
         <v>0.80452871002261872</v>
       </c>
-      <c r="AN58" s="100">
+      <c r="AN58" s="80">
         <f t="shared" si="31"/>
-        <v>4.4018837259796051E-3</v>
+        <v>0.9999559811627402</v>
       </c>
     </row>
     <row r="59" spans="1:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -11734,133 +10709,133 @@
         <f t="shared" si="25"/>
         <v>1.7422432291364611</v>
       </c>
-      <c r="AJ59" s="95">
+      <c r="AJ59" s="65">
         <v>32</v>
       </c>
-      <c r="AK59" s="96">
+      <c r="AK59" s="66">
         <f>AP51</f>
         <v>0.55993752329179092</v>
       </c>
-      <c r="AL59" s="97">
+      <c r="AL59" s="67">
         <f>AQ51</f>
         <v>2.783335915311445</v>
       </c>
-      <c r="AM59" s="97">
+      <c r="AM59" s="67">
         <f t="shared" si="32"/>
         <v>2.7833004993341177</v>
       </c>
-      <c r="AN59" s="101">
+      <c r="AN59" s="82">
         <f t="shared" si="31"/>
-        <v>1.2724291427623768E-3</v>
+        <v>0.99998727570857238</v>
       </c>
     </row>
     <row r="62" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A62" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="B62" s="45"/>
-      <c r="C62" s="46"/>
-      <c r="D62" s="46"/>
-      <c r="E62" s="46"/>
-      <c r="F62" s="46"/>
-      <c r="G62" s="46"/>
-      <c r="H62" s="46"/>
-      <c r="I62" s="46"/>
-      <c r="J62" s="46"/>
-      <c r="K62" s="46"/>
-      <c r="L62" s="47"/>
-      <c r="Q62" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="R62" s="45"/>
-      <c r="S62" s="46"/>
-      <c r="T62" s="46"/>
-      <c r="U62" s="46"/>
-      <c r="V62" s="46"/>
-      <c r="W62" s="46"/>
-      <c r="X62" s="46"/>
-      <c r="Y62" s="46"/>
-      <c r="Z62" s="46"/>
-      <c r="AA62" s="46"/>
-      <c r="AB62" s="47"/>
-      <c r="AF62" s="109" t="s">
-        <v>17</v>
-      </c>
-      <c r="AG62" s="110"/>
-      <c r="AH62" s="103"/>
-      <c r="AI62" s="103"/>
-      <c r="AJ62" s="103"/>
-      <c r="AK62" s="103"/>
-      <c r="AL62" s="103"/>
-      <c r="AM62" s="103"/>
-      <c r="AN62" s="103"/>
-      <c r="AO62" s="103"/>
-      <c r="AP62" s="103"/>
-      <c r="AQ62" s="104"/>
+      <c r="A62" s="84" t="s">
+        <v>15</v>
+      </c>
+      <c r="B62" s="85"/>
+      <c r="C62" s="86"/>
+      <c r="D62" s="86"/>
+      <c r="E62" s="86"/>
+      <c r="F62" s="86"/>
+      <c r="G62" s="86"/>
+      <c r="H62" s="86"/>
+      <c r="I62" s="86"/>
+      <c r="J62" s="86"/>
+      <c r="K62" s="86"/>
+      <c r="L62" s="87"/>
+      <c r="Q62" s="84" t="s">
+        <v>15</v>
+      </c>
+      <c r="R62" s="85"/>
+      <c r="S62" s="86"/>
+      <c r="T62" s="86"/>
+      <c r="U62" s="86"/>
+      <c r="V62" s="86"/>
+      <c r="W62" s="86"/>
+      <c r="X62" s="86"/>
+      <c r="Y62" s="86"/>
+      <c r="Z62" s="86"/>
+      <c r="AA62" s="86"/>
+      <c r="AB62" s="87"/>
+      <c r="AF62" s="97" t="s">
+        <v>15</v>
+      </c>
+      <c r="AG62" s="98"/>
+      <c r="AH62" s="89"/>
+      <c r="AI62" s="89"/>
+      <c r="AJ62" s="89"/>
+      <c r="AK62" s="89"/>
+      <c r="AL62" s="89"/>
+      <c r="AM62" s="89"/>
+      <c r="AN62" s="89"/>
+      <c r="AO62" s="89"/>
+      <c r="AP62" s="89"/>
+      <c r="AQ62" s="90"/>
     </row>
     <row r="63" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A63" s="48" t="s">
+      <c r="A63" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="B63" s="47"/>
-      <c r="C63" s="49" t="s">
+      <c r="B63" s="87"/>
+      <c r="C63" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="D63" s="50"/>
-      <c r="E63" s="44" t="s">
+      <c r="D63" s="93"/>
+      <c r="E63" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="F63" s="50"/>
-      <c r="G63" s="44" t="s">
+      <c r="F63" s="93"/>
+      <c r="G63" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="H63" s="50"/>
-      <c r="I63" s="44" t="s">
+      <c r="H63" s="93"/>
+      <c r="I63" s="84" t="s">
         <v>5</v>
       </c>
-      <c r="J63" s="50"/>
-      <c r="K63" s="44" t="s">
+      <c r="J63" s="93"/>
+      <c r="K63" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="L63" s="50"/>
-      <c r="Q63" s="44" t="s">
+      <c r="L63" s="93"/>
+      <c r="Q63" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="R63" s="50"/>
-      <c r="S63" s="44" t="s">
+      <c r="R63" s="93"/>
+      <c r="S63" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="T63" s="50"/>
-      <c r="U63" s="44" t="s">
+      <c r="T63" s="93"/>
+      <c r="U63" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="V63" s="50"/>
-      <c r="W63" s="44" t="s">
+      <c r="V63" s="93"/>
+      <c r="W63" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="X63" s="50"/>
-      <c r="Y63" s="44" t="s">
+      <c r="X63" s="93"/>
+      <c r="Y63" s="84" t="s">
         <v>5</v>
       </c>
-      <c r="Z63" s="50"/>
-      <c r="AA63" s="44" t="s">
+      <c r="Z63" s="93"/>
+      <c r="AA63" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="AB63" s="50"/>
-      <c r="AF63" s="105" t="s">
+      <c r="AB63" s="93"/>
+      <c r="AF63" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="AG63" s="106"/>
-      <c r="AH63" s="106"/>
-      <c r="AI63" s="106"/>
-      <c r="AJ63" s="106"/>
-      <c r="AK63" s="106"/>
-      <c r="AL63" s="106"/>
-      <c r="AM63" s="106"/>
-      <c r="AN63" s="106"/>
-      <c r="AO63" s="106"/>
-      <c r="AP63" s="106"/>
-      <c r="AQ63" s="107"/>
+      <c r="AG63" s="95"/>
+      <c r="AH63" s="95"/>
+      <c r="AI63" s="95"/>
+      <c r="AJ63" s="95"/>
+      <c r="AK63" s="95"/>
+      <c r="AL63" s="95"/>
+      <c r="AM63" s="95"/>
+      <c r="AN63" s="95"/>
+      <c r="AO63" s="95"/>
+      <c r="AP63" s="95"/>
+      <c r="AQ63" s="96"/>
     </row>
     <row r="64" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
@@ -11935,32 +10910,32 @@
       <c r="AB64" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="AF64" s="105">
+      <c r="AF64" s="94">
         <v>1</v>
       </c>
-      <c r="AG64" s="106"/>
-      <c r="AH64" s="105">
+      <c r="AG64" s="95"/>
+      <c r="AH64" s="94">
         <v>2</v>
       </c>
-      <c r="AI64" s="107"/>
-      <c r="AJ64" s="105">
+      <c r="AI64" s="96"/>
+      <c r="AJ64" s="94">
         <v>4</v>
       </c>
-      <c r="AK64" s="107"/>
-      <c r="AL64" s="105">
+      <c r="AK64" s="96"/>
+      <c r="AL64" s="94">
         <v>8</v>
       </c>
-      <c r="AM64" s="107"/>
-      <c r="AN64" s="105">
+      <c r="AM64" s="96"/>
+      <c r="AN64" s="94">
         <v>16</v>
       </c>
-      <c r="AO64" s="107"/>
-      <c r="AP64" s="105">
+      <c r="AO64" s="96"/>
+      <c r="AP64" s="94">
         <v>32</v>
       </c>
-      <c r="AQ64" s="107"/>
+      <c r="AQ64" s="96"/>
     </row>
-    <row r="65" spans="1:43" ht="34" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:43" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="5">
         <v>60008</v>
       </c>
@@ -12045,41 +11020,41 @@
         <f t="shared" si="25"/>
         <v>1.9239464583066479</v>
       </c>
-      <c r="AF65" s="111" t="s">
-        <v>12</v>
-      </c>
-      <c r="AG65" s="112" t="s">
-        <v>13</v>
-      </c>
-      <c r="AH65" s="111" t="s">
-        <v>12</v>
-      </c>
-      <c r="AI65" s="112" t="s">
-        <v>13</v>
-      </c>
-      <c r="AJ65" s="111" t="s">
-        <v>12</v>
-      </c>
-      <c r="AK65" s="112" t="s">
-        <v>13</v>
-      </c>
-      <c r="AL65" s="113" t="s">
-        <v>12</v>
-      </c>
-      <c r="AM65" s="114" t="s">
-        <v>13</v>
-      </c>
-      <c r="AN65" s="111" t="s">
-        <v>12</v>
-      </c>
-      <c r="AO65" s="112" t="s">
-        <v>13</v>
-      </c>
-      <c r="AP65" s="111" t="s">
-        <v>12</v>
-      </c>
-      <c r="AQ65" s="112" t="s">
-        <v>13</v>
+      <c r="AF65" s="119" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG65" s="120" t="s">
+        <v>11</v>
+      </c>
+      <c r="AH65" s="119" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI65" s="120" t="s">
+        <v>11</v>
+      </c>
+      <c r="AJ65" s="119" t="s">
+        <v>10</v>
+      </c>
+      <c r="AK65" s="120" t="s">
+        <v>11</v>
+      </c>
+      <c r="AL65" s="119" t="s">
+        <v>10</v>
+      </c>
+      <c r="AM65" s="120" t="s">
+        <v>11</v>
+      </c>
+      <c r="AN65" s="119" t="s">
+        <v>10</v>
+      </c>
+      <c r="AO65" s="120" t="s">
+        <v>11</v>
+      </c>
+      <c r="AP65" s="119" t="s">
+        <v>10</v>
+      </c>
+      <c r="AQ65" s="120" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="66" spans="1:43" x14ac:dyDescent="0.2">
@@ -12167,51 +11142,51 @@
         <f t="shared" si="25"/>
         <v>0.85049467113922972</v>
       </c>
-      <c r="AF66" s="115">
+      <c r="AF66" s="68">
         <f t="shared" si="26"/>
         <v>40745.404718341422</v>
       </c>
-      <c r="AG66" s="119">
+      <c r="AG66" s="72">
         <f t="shared" si="26"/>
         <v>2.4543219563054768E-5</v>
       </c>
-      <c r="AH66" s="120">
+      <c r="AH66" s="73">
         <f t="shared" si="26"/>
         <v>6662.2767617082718</v>
       </c>
-      <c r="AI66" s="119">
+      <c r="AI66" s="72">
         <f t="shared" si="26"/>
         <v>1.5078135007224884E-4</v>
       </c>
-      <c r="AJ66" s="120">
+      <c r="AJ66" s="73">
         <f t="shared" si="26"/>
         <v>7385.7421572986295</v>
       </c>
-      <c r="AK66" s="119">
+      <c r="AK66" s="72">
         <f t="shared" si="26"/>
         <v>1.3544814540655719E-4</v>
       </c>
-      <c r="AL66" s="120">
+      <c r="AL66" s="73">
         <f t="shared" si="26"/>
         <v>6260.0261843594799</v>
       </c>
-      <c r="AM66" s="119">
+      <c r="AM66" s="72">
         <f t="shared" si="26"/>
         <v>1.5981362511561002E-4</v>
       </c>
-      <c r="AN66" s="120">
+      <c r="AN66" s="73">
         <f t="shared" si="26"/>
         <v>1.3640830890660827</v>
       </c>
-      <c r="AO66" s="120">
+      <c r="AO66" s="73">
         <f t="shared" si="26"/>
         <v>0.80964857576782667</v>
       </c>
-      <c r="AP66" s="120">
+      <c r="AP66" s="73">
         <f t="shared" si="26"/>
         <v>0.7015238034781508</v>
       </c>
-      <c r="AQ66" s="123">
+      <c r="AQ66" s="76">
         <f t="shared" si="26"/>
         <v>2.1325517137521244</v>
       </c>
@@ -12302,7 +11277,7 @@
         <v>1.3429682784521495</v>
       </c>
     </row>
-    <row r="68" spans="1:43" ht="86" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:43" ht="52" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A68" s="14">
         <v>60002</v>
       </c>
@@ -12387,22 +11362,22 @@
         <f t="shared" si="25"/>
         <v>4.825936923200385</v>
       </c>
-      <c r="AF68" s="122"/>
-      <c r="AG68" s="121"/>
-      <c r="AJ68" s="86" t="s">
+      <c r="AF68" s="75"/>
+      <c r="AG68" s="74"/>
+      <c r="AJ68" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="AK68" s="98" t="s">
-        <v>12</v>
-      </c>
-      <c r="AL68" s="129" t="s">
-        <v>18</v>
-      </c>
-      <c r="AM68" s="87" t="s">
-        <v>13</v>
-      </c>
-      <c r="AN68" s="128" t="s">
-        <v>19</v>
+      <c r="AK68" s="121" t="s">
+        <v>10</v>
+      </c>
+      <c r="AL68" s="121" t="s">
+        <v>32</v>
+      </c>
+      <c r="AM68" s="121" t="s">
+        <v>11</v>
+      </c>
+      <c r="AN68" s="83" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="69" spans="1:43" x14ac:dyDescent="0.2">
@@ -12490,24 +11465,24 @@
         <f t="shared" si="25"/>
         <v>1.1753428409335447</v>
       </c>
-      <c r="AG69" s="121"/>
-      <c r="AJ69" s="88">
+      <c r="AG69" s="74"/>
+      <c r="AJ69" s="58">
         <v>1</v>
       </c>
-      <c r="AK69" s="89">
+      <c r="AK69" s="59">
         <f>AF66</f>
         <v>40745.404718341422</v>
       </c>
-      <c r="AL69" s="90">
+      <c r="AL69" s="60">
         <f>AG66</f>
         <v>2.4543219563054768E-5</v>
       </c>
-      <c r="AM69" s="91">
+      <c r="AM69" s="61">
         <v>0</v>
       </c>
-      <c r="AN69" s="99">
-        <f>(1-AM69/AL69)*100</f>
-        <v>100</v>
+      <c r="AN69" s="79">
+        <f>(AM69/AL69)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:43" x14ac:dyDescent="0.2">
@@ -12595,25 +11570,25 @@
         <f t="shared" si="25"/>
         <v>5.8163956639566399</v>
       </c>
-      <c r="AG70" s="121"/>
-      <c r="AJ70" s="92">
+      <c r="AG70" s="74"/>
+      <c r="AJ70" s="62">
         <v>2</v>
       </c>
-      <c r="AK70" s="93">
+      <c r="AK70" s="63">
         <f>AH66</f>
         <v>6662.2767617082718</v>
       </c>
-      <c r="AL70" s="94">
+      <c r="AL70" s="64">
         <f>AI66</f>
         <v>1.5078135007224884E-4</v>
       </c>
-      <c r="AM70" s="94">
+      <c r="AM70" s="64">
         <f>AL70-$AL$69</f>
         <v>1.2623813050919406E-4</v>
       </c>
-      <c r="AN70" s="99">
-        <f t="shared" ref="AN70:AN74" si="33">(1-AM70/AL70)*100</f>
-        <v>16.277357611730213</v>
+      <c r="AN70" s="79">
+        <f t="shared" ref="AN70:AN74" si="33">(AM70/AL70)</f>
+        <v>0.83722642388269786</v>
       </c>
     </row>
     <row r="71" spans="1:43" x14ac:dyDescent="0.2">
@@ -12701,25 +11676,25 @@
         <f t="shared" si="25"/>
         <v>0.92199060571639091</v>
       </c>
-      <c r="AG71" s="121"/>
-      <c r="AJ71" s="92">
+      <c r="AG71" s="74"/>
+      <c r="AJ71" s="62">
         <v>4</v>
       </c>
-      <c r="AK71" s="93">
+      <c r="AK71" s="63">
         <f>AJ66</f>
         <v>7385.7421572986295</v>
       </c>
-      <c r="AL71" s="94">
+      <c r="AL71" s="64">
         <f>AK66</f>
         <v>1.3544814540655719E-4</v>
       </c>
-      <c r="AM71" s="94">
+      <c r="AM71" s="64">
         <f t="shared" ref="AM71:AM73" si="34">AL71-$AL$69</f>
         <v>1.1090492584350242E-4</v>
       </c>
-      <c r="AN71" s="99">
+      <c r="AN71" s="79">
         <f t="shared" si="33"/>
-        <v>18.120011528682479</v>
+        <v>0.81879988471317522</v>
       </c>
     </row>
     <row r="72" spans="1:43" x14ac:dyDescent="0.2">
@@ -12807,25 +11782,25 @@
         <f t="shared" si="25"/>
         <v>0.88339238198844505</v>
       </c>
-      <c r="AG72" s="121"/>
-      <c r="AJ72" s="92">
+      <c r="AG72" s="74"/>
+      <c r="AJ72" s="62">
         <v>8</v>
       </c>
-      <c r="AK72" s="93">
+      <c r="AK72" s="63">
         <f>AL66</f>
         <v>6260.0261843594799</v>
       </c>
-      <c r="AL72" s="94">
+      <c r="AL72" s="64">
         <f>AM66</f>
         <v>1.5981362511561002E-4</v>
       </c>
-      <c r="AM72" s="94">
+      <c r="AM72" s="64">
         <f t="shared" si="34"/>
         <v>1.3527040555255524E-4</v>
       </c>
-      <c r="AN72" s="99">
+      <c r="AN72" s="79">
         <f t="shared" si="33"/>
-        <v>15.357401188603337</v>
+        <v>0.84642598811396663</v>
       </c>
     </row>
     <row r="73" spans="1:43" x14ac:dyDescent="0.2">
@@ -12913,25 +11888,25 @@
         <f t="shared" si="25"/>
         <v>1.6019458883113422</v>
       </c>
-      <c r="AG73" s="121"/>
-      <c r="AJ73" s="92">
+      <c r="AG73" s="74"/>
+      <c r="AJ73" s="62">
         <v>16</v>
       </c>
-      <c r="AK73" s="93">
+      <c r="AK73" s="63">
         <f>AN66</f>
         <v>1.3640830890660827</v>
       </c>
-      <c r="AL73" s="94">
+      <c r="AL73" s="64">
         <f>AO66</f>
         <v>0.80964857576782667</v>
       </c>
-      <c r="AM73" s="94">
+      <c r="AM73" s="64">
         <f t="shared" si="34"/>
         <v>0.80962403254826365</v>
       </c>
-      <c r="AN73" s="100">
+      <c r="AN73" s="80">
         <f t="shared" si="33"/>
-        <v>3.0313422758498909E-3</v>
+        <v>0.9999696865772415</v>
       </c>
     </row>
     <row r="74" spans="1:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -13019,207 +11994,207 @@
         <f t="shared" si="25"/>
         <v>1.9831034255164675</v>
       </c>
-      <c r="AJ74" s="95">
+      <c r="AJ74" s="65">
         <v>32</v>
       </c>
-      <c r="AK74" s="96">
+      <c r="AK74" s="66">
         <f>AP66</f>
         <v>0.7015238034781508</v>
       </c>
-      <c r="AL74" s="97">
+      <c r="AL74" s="67">
         <f>AQ66</f>
         <v>2.1325517137521244</v>
       </c>
-      <c r="AM74" s="97">
+      <c r="AM74" s="67">
         <f>AL74-$AL$69</f>
         <v>2.1325271705325615</v>
       </c>
-      <c r="AN74" s="101">
+      <c r="AN74" s="82">
         <f t="shared" si="33"/>
-        <v>1.1508850831010164E-3</v>
+        <v>0.99998849114916899</v>
       </c>
     </row>
     <row r="77" spans="1:43" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="78" spans="1:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C78" s="60" t="s">
+      <c r="C78" s="99" t="s">
+        <v>22</v>
+      </c>
+      <c r="D78" s="100"/>
+      <c r="E78" s="100"/>
+      <c r="F78" s="101"/>
+      <c r="G78" s="102" t="s">
+        <v>21</v>
+      </c>
+      <c r="I78" s="99" t="s">
+        <v>29</v>
+      </c>
+      <c r="J78" s="100"/>
+      <c r="K78" s="100"/>
+      <c r="L78" s="101"/>
+      <c r="M78" s="111" t="s">
+        <v>21</v>
+      </c>
+      <c r="O78" s="99" t="s">
+        <v>30</v>
+      </c>
+      <c r="P78" s="100"/>
+      <c r="Q78" s="100"/>
+      <c r="R78" s="101"/>
+      <c r="S78" s="102" t="s">
+        <v>21</v>
+      </c>
+      <c r="U78" s="99" t="s">
         <v>26</v>
       </c>
-      <c r="D78" s="61"/>
-      <c r="E78" s="61"/>
-      <c r="F78" s="62"/>
-      <c r="G78" s="76" t="s">
-        <v>25</v>
-      </c>
-      <c r="I78" s="60" t="s">
-        <v>33</v>
-      </c>
-      <c r="J78" s="61"/>
-      <c r="K78" s="61"/>
-      <c r="L78" s="62"/>
-      <c r="M78" s="54" t="s">
-        <v>25</v>
-      </c>
-      <c r="O78" s="60" t="s">
-        <v>34</v>
-      </c>
-      <c r="P78" s="61"/>
-      <c r="Q78" s="61"/>
-      <c r="R78" s="62"/>
-      <c r="S78" s="76" t="s">
-        <v>25</v>
-      </c>
-      <c r="U78" s="60" t="s">
-        <v>30</v>
-      </c>
-      <c r="V78" s="61"/>
-      <c r="W78" s="61"/>
-      <c r="X78" s="62"/>
-      <c r="Y78" s="76" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA78" s="79"/>
-      <c r="AB78" s="79"/>
-      <c r="AC78" s="79"/>
-      <c r="AD78" s="79"/>
-      <c r="AE78" s="84"/>
-      <c r="AF78" s="127"/>
-      <c r="AG78" s="127"/>
-      <c r="AH78" s="127"/>
-      <c r="AI78" s="127"/>
-      <c r="AJ78" s="127"/>
-      <c r="AK78" s="127"/>
-      <c r="AL78" s="127"/>
-      <c r="AM78" s="127"/>
-      <c r="AN78" s="127"/>
-      <c r="AO78" s="127"/>
-      <c r="AP78" s="127"/>
-      <c r="AQ78" s="127"/>
+      <c r="V78" s="100"/>
+      <c r="W78" s="100"/>
+      <c r="X78" s="101"/>
+      <c r="Y78" s="102" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA78" s="117"/>
+      <c r="AB78" s="117"/>
+      <c r="AC78" s="117"/>
+      <c r="AD78" s="117"/>
+      <c r="AE78" s="55"/>
+      <c r="AF78" s="78"/>
+      <c r="AG78" s="78"/>
+      <c r="AH78" s="78"/>
+      <c r="AI78" s="78"/>
+      <c r="AJ78" s="78"/>
+      <c r="AK78" s="78"/>
+      <c r="AL78" s="78"/>
+      <c r="AM78" s="78"/>
+      <c r="AN78" s="78"/>
+      <c r="AO78" s="78"/>
+      <c r="AP78" s="78"/>
+      <c r="AQ78" s="78"/>
     </row>
     <row r="79" spans="1:43" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C79" s="63" t="s">
-        <v>22</v>
-      </c>
-      <c r="D79" s="53"/>
-      <c r="E79" s="63" t="s">
-        <v>23</v>
-      </c>
-      <c r="F79" s="64"/>
-      <c r="G79" s="77"/>
-      <c r="I79" s="63" t="s">
-        <v>22</v>
-      </c>
-      <c r="J79" s="53"/>
-      <c r="K79" s="63" t="s">
-        <v>23</v>
-      </c>
-      <c r="L79" s="64"/>
-      <c r="M79" s="55"/>
-      <c r="O79" s="63" t="s">
-        <v>22</v>
-      </c>
-      <c r="P79" s="53"/>
-      <c r="Q79" s="63" t="s">
-        <v>23</v>
-      </c>
-      <c r="R79" s="64"/>
-      <c r="S79" s="77"/>
-      <c r="U79" s="63" t="s">
-        <v>22</v>
-      </c>
-      <c r="V79" s="53"/>
-      <c r="W79" s="63" t="s">
-        <v>23</v>
-      </c>
-      <c r="X79" s="64"/>
-      <c r="Y79" s="77"/>
-      <c r="AA79" s="79"/>
-      <c r="AB79" s="79"/>
-      <c r="AC79" s="79"/>
-      <c r="AD79" s="80"/>
-      <c r="AE79" s="84"/>
-      <c r="AF79" s="127"/>
-      <c r="AG79" s="127"/>
-      <c r="AH79" s="127"/>
-      <c r="AI79" s="127"/>
-      <c r="AJ79" s="127"/>
-      <c r="AK79" s="127"/>
-      <c r="AL79" s="127"/>
-      <c r="AM79" s="127"/>
-      <c r="AN79" s="127"/>
-      <c r="AO79" s="127"/>
-      <c r="AP79" s="127"/>
-      <c r="AQ79" s="127"/>
+      <c r="C79" s="105" t="s">
+        <v>18</v>
+      </c>
+      <c r="D79" s="106"/>
+      <c r="E79" s="105" t="s">
+        <v>19</v>
+      </c>
+      <c r="F79" s="107"/>
+      <c r="G79" s="103"/>
+      <c r="I79" s="105" t="s">
+        <v>18</v>
+      </c>
+      <c r="J79" s="106"/>
+      <c r="K79" s="105" t="s">
+        <v>19</v>
+      </c>
+      <c r="L79" s="107"/>
+      <c r="M79" s="112"/>
+      <c r="O79" s="105" t="s">
+        <v>18</v>
+      </c>
+      <c r="P79" s="106"/>
+      <c r="Q79" s="105" t="s">
+        <v>19</v>
+      </c>
+      <c r="R79" s="107"/>
+      <c r="S79" s="103"/>
+      <c r="U79" s="105" t="s">
+        <v>18</v>
+      </c>
+      <c r="V79" s="106"/>
+      <c r="W79" s="105" t="s">
+        <v>19</v>
+      </c>
+      <c r="X79" s="107"/>
+      <c r="Y79" s="103"/>
+      <c r="AA79" s="117"/>
+      <c r="AB79" s="117"/>
+      <c r="AC79" s="117"/>
+      <c r="AD79" s="118"/>
+      <c r="AE79" s="55"/>
+      <c r="AF79" s="78"/>
+      <c r="AG79" s="78"/>
+      <c r="AH79" s="78"/>
+      <c r="AI79" s="78"/>
+      <c r="AJ79" s="78"/>
+      <c r="AK79" s="78"/>
+      <c r="AL79" s="78"/>
+      <c r="AM79" s="78"/>
+      <c r="AN79" s="78"/>
+      <c r="AO79" s="78"/>
+      <c r="AP79" s="78"/>
+      <c r="AQ79" s="78"/>
     </row>
     <row r="80" spans="1:43" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C80" s="65" t="s">
-        <v>24</v>
-      </c>
-      <c r="D80" s="66" t="s">
-        <v>21</v>
-      </c>
-      <c r="E80" s="65" t="s">
-        <v>24</v>
-      </c>
-      <c r="F80" s="66" t="s">
-        <v>21</v>
-      </c>
-      <c r="G80" s="78"/>
-      <c r="I80" s="65" t="s">
-        <v>24</v>
-      </c>
-      <c r="J80" s="66" t="s">
-        <v>21</v>
-      </c>
-      <c r="K80" s="65" t="s">
-        <v>24</v>
-      </c>
-      <c r="L80" s="66" t="s">
-        <v>21</v>
-      </c>
-      <c r="M80" s="56"/>
-      <c r="O80" s="65" t="s">
-        <v>24</v>
-      </c>
-      <c r="P80" s="66" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q80" s="65" t="s">
-        <v>24</v>
-      </c>
-      <c r="R80" s="66" t="s">
-        <v>21</v>
-      </c>
-      <c r="S80" s="78"/>
-      <c r="U80" s="65" t="s">
-        <v>24</v>
-      </c>
-      <c r="V80" s="66" t="s">
-        <v>21</v>
-      </c>
-      <c r="W80" s="65" t="s">
-        <v>24</v>
-      </c>
-      <c r="X80" s="66" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y80" s="78"/>
-      <c r="AA80" s="81"/>
-      <c r="AB80" s="81"/>
-      <c r="AC80" s="81"/>
-      <c r="AD80" s="81"/>
-      <c r="AE80" s="84"/>
-      <c r="AF80" s="127"/>
-      <c r="AG80" s="127"/>
-      <c r="AH80" s="127"/>
-      <c r="AI80" s="127"/>
-      <c r="AJ80" s="127"/>
-      <c r="AK80" s="127"/>
-      <c r="AL80" s="127"/>
-      <c r="AM80" s="127"/>
-      <c r="AN80" s="127"/>
-      <c r="AO80" s="127"/>
-      <c r="AP80" s="127"/>
-      <c r="AQ80" s="127"/>
+      <c r="C80" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="D80" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E80" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="F80" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="G80" s="104"/>
+      <c r="I80" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="J80" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="K80" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="L80" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="M80" s="113"/>
+      <c r="O80" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="P80" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q80" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="R80" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="S80" s="104"/>
+      <c r="U80" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="V80" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="W80" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="X80" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y80" s="104"/>
+      <c r="AA80" s="52"/>
+      <c r="AB80" s="52"/>
+      <c r="AC80" s="52"/>
+      <c r="AD80" s="52"/>
+      <c r="AE80" s="55"/>
+      <c r="AF80" s="78"/>
+      <c r="AG80" s="78"/>
+      <c r="AH80" s="78"/>
+      <c r="AI80" s="78"/>
+      <c r="AJ80" s="78"/>
+      <c r="AK80" s="78"/>
+      <c r="AL80" s="78"/>
+      <c r="AM80" s="78"/>
+      <c r="AN80" s="78"/>
+      <c r="AO80" s="78"/>
+      <c r="AP80" s="78"/>
+      <c r="AQ80" s="78"/>
     </row>
     <row r="81" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A81">
@@ -13233,85 +12208,72 @@
       <c r="C81" s="43">
         <v>59998</v>
       </c>
-      <c r="D81" s="67">
+      <c r="D81" s="44">
         <v>345075332</v>
       </c>
-      <c r="E81" s="68">
+      <c r="E81" s="47">
         <v>59997</v>
       </c>
-      <c r="F81" s="67">
+      <c r="F81" s="44">
         <v>370946406</v>
       </c>
-      <c r="G81" s="57">
+      <c r="G81" s="108">
         <f>(AVERAGE(F81:F86)/AVERAGE(E81:E86)-AVERAGE(D81:D86)/AVERAGE(C81:C86))/(AVERAGE(F81:F86)/AVERAGE(E81:E86)) * 100</f>
         <v>5.1051021598575108</v>
       </c>
-      <c r="H81" s="52"/>
       <c r="I81" s="43">
         <v>60004</v>
       </c>
-      <c r="J81" s="67">
+      <c r="J81" s="44">
         <v>228051799</v>
       </c>
-      <c r="K81" s="68">
+      <c r="K81" s="47">
         <v>60006</v>
       </c>
-      <c r="L81" s="67">
+      <c r="L81" s="44">
         <v>281817388</v>
       </c>
-      <c r="M81" s="57">
+      <c r="M81" s="108">
         <f>(AVERAGE(L81:L86)/AVERAGE(K81:K86)-AVERAGE(J81:J86)/AVERAGE(I81:I86))/(AVERAGE(L81:L86)/AVERAGE(K81:K86)) * 100</f>
         <v>3.3878288061505826</v>
       </c>
       <c r="O81" s="43">
         <v>62153</v>
       </c>
-      <c r="P81" s="67">
+      <c r="P81" s="44">
         <v>3008838390</v>
       </c>
-      <c r="Q81" s="68">
+      <c r="Q81" s="47">
         <v>62258</v>
       </c>
-      <c r="R81" s="67">
+      <c r="R81" s="44">
         <v>3514215989</v>
       </c>
-      <c r="S81" s="57">
+      <c r="S81" s="108">
         <f>(AVERAGE(R81:R86)/AVERAGE(Q81:Q86)-AVERAGE(P81:P86)/AVERAGE(O81:O86))/(AVERAGE(R81:R86)/AVERAGE(Q81:Q86)) * 100</f>
         <v>3.2105552966774171</v>
       </c>
       <c r="U81" s="43">
         <v>60004</v>
       </c>
-      <c r="V81" s="67">
+      <c r="V81" s="44">
         <v>395276740</v>
       </c>
-      <c r="W81" s="68">
+      <c r="W81" s="47">
         <v>60009</v>
       </c>
-      <c r="X81" s="67">
+      <c r="X81" s="44">
         <v>398219049</v>
       </c>
-      <c r="Y81" s="57">
+      <c r="Y81" s="108">
         <f>(AVERAGE(X81:X86)/AVERAGE(W81:W86)-AVERAGE(V81:V86)/AVERAGE(U81:U86))/(AVERAGE(X81:X86)/AVERAGE(W81:W86)) * 100</f>
         <v>3.3555736770115945</v>
       </c>
-      <c r="AA81" s="82"/>
-      <c r="AB81" s="82"/>
-      <c r="AC81" s="82"/>
-      <c r="AD81" s="82"/>
-      <c r="AE81" s="83"/>
-      <c r="AF81" s="124"/>
-      <c r="AG81" s="124"/>
-      <c r="AH81" s="124"/>
-      <c r="AI81" s="124"/>
-      <c r="AJ81" s="124"/>
-      <c r="AK81" s="124"/>
-      <c r="AL81" s="124"/>
-      <c r="AM81" s="124"/>
-      <c r="AN81" s="124"/>
-      <c r="AO81" s="124"/>
-      <c r="AP81" s="124"/>
-      <c r="AQ81" s="124"/>
+      <c r="AA81" s="53"/>
+      <c r="AB81" s="53"/>
+      <c r="AC81" s="53"/>
+      <c r="AD81" s="53"/>
+      <c r="AE81" s="54"/>
     </row>
     <row r="82" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A82">
@@ -13325,73 +12287,72 @@
       <c r="C82" s="41">
         <v>59997</v>
       </c>
-      <c r="D82" s="69">
+      <c r="D82" s="48">
         <v>291237011</v>
       </c>
-      <c r="E82" s="70">
+      <c r="E82" s="49">
         <v>59999</v>
       </c>
-      <c r="F82" s="69">
+      <c r="F82" s="48">
         <v>314637528</v>
       </c>
-      <c r="G82" s="58"/>
-      <c r="H82" s="52"/>
+      <c r="G82" s="109"/>
       <c r="I82" s="41">
         <v>60004</v>
       </c>
-      <c r="J82" s="69">
+      <c r="J82" s="48">
         <v>246372688</v>
       </c>
-      <c r="K82" s="70">
+      <c r="K82" s="49">
         <v>60006</v>
       </c>
-      <c r="L82" s="69">
+      <c r="L82" s="48">
         <v>236379554</v>
       </c>
-      <c r="M82" s="58"/>
+      <c r="M82" s="109"/>
       <c r="O82" s="41">
         <v>63144</v>
       </c>
-      <c r="P82" s="69">
+      <c r="P82" s="48">
         <v>3318606854</v>
       </c>
-      <c r="Q82" s="70">
+      <c r="Q82" s="49">
         <v>62750</v>
       </c>
-      <c r="R82" s="69">
+      <c r="R82" s="48">
         <v>3663549584</v>
       </c>
-      <c r="S82" s="58"/>
+      <c r="S82" s="109"/>
       <c r="U82" s="41">
         <v>60006</v>
       </c>
-      <c r="V82" s="69">
+      <c r="V82" s="48">
         <v>391796279</v>
       </c>
-      <c r="W82" s="70">
+      <c r="W82" s="49">
         <v>60009</v>
       </c>
-      <c r="X82" s="69">
+      <c r="X82" s="48">
         <v>411397278</v>
       </c>
-      <c r="Y82" s="58"/>
-      <c r="AA82" s="82"/>
-      <c r="AB82" s="82"/>
-      <c r="AC82" s="82"/>
-      <c r="AD82" s="82"/>
-      <c r="AE82" s="83"/>
-      <c r="AF82" s="125"/>
-      <c r="AG82" s="126"/>
-      <c r="AH82" s="125"/>
-      <c r="AI82" s="126"/>
-      <c r="AJ82" s="125"/>
-      <c r="AK82" s="126"/>
-      <c r="AL82" s="125"/>
-      <c r="AM82" s="126"/>
-      <c r="AN82" s="125"/>
-      <c r="AO82" s="126"/>
-      <c r="AP82" s="125"/>
-      <c r="AQ82" s="126"/>
+      <c r="Y82" s="109"/>
+      <c r="AA82" s="53"/>
+      <c r="AB82" s="53"/>
+      <c r="AC82" s="53"/>
+      <c r="AD82" s="53"/>
+      <c r="AE82" s="54"/>
+      <c r="AF82" s="74"/>
+      <c r="AG82" s="77"/>
+      <c r="AH82" s="74"/>
+      <c r="AI82" s="77"/>
+      <c r="AJ82" s="74"/>
+      <c r="AK82" s="77"/>
+      <c r="AL82" s="74"/>
+      <c r="AM82" s="77"/>
+      <c r="AN82" s="74"/>
+      <c r="AO82" s="77"/>
+      <c r="AP82" s="74"/>
+      <c r="AQ82" s="77"/>
     </row>
     <row r="83" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A83">
@@ -13405,61 +12366,60 @@
       <c r="C83" s="41">
         <v>60000</v>
       </c>
-      <c r="D83" s="69">
+      <c r="D83" s="48">
         <v>303164783</v>
       </c>
-      <c r="E83" s="70">
+      <c r="E83" s="49">
         <v>59999</v>
       </c>
-      <c r="F83" s="69">
+      <c r="F83" s="48">
         <v>330871232</v>
       </c>
-      <c r="G83" s="58"/>
-      <c r="H83" s="52"/>
+      <c r="G83" s="109"/>
       <c r="I83" s="41">
         <v>60006</v>
       </c>
-      <c r="J83" s="69">
+      <c r="J83" s="48">
         <v>238908763</v>
       </c>
-      <c r="K83" s="70">
+      <c r="K83" s="49">
         <v>60005</v>
       </c>
-      <c r="L83" s="69">
+      <c r="L83" s="48">
         <v>348551302</v>
       </c>
-      <c r="M83" s="58"/>
+      <c r="M83" s="109"/>
       <c r="O83" s="41">
         <v>61474</v>
       </c>
-      <c r="P83" s="69">
+      <c r="P83" s="48">
         <v>3671862856</v>
       </c>
-      <c r="Q83" s="70">
+      <c r="Q83" s="49">
         <v>61533</v>
       </c>
-      <c r="R83" s="69">
+      <c r="R83" s="48">
         <v>3645791169</v>
       </c>
-      <c r="S83" s="58"/>
+      <c r="S83" s="109"/>
       <c r="U83" s="41">
         <v>60006</v>
       </c>
-      <c r="V83" s="69">
+      <c r="V83" s="48">
         <v>405064389</v>
       </c>
-      <c r="W83" s="70">
+      <c r="W83" s="49">
         <v>60010</v>
       </c>
-      <c r="X83" s="69">
+      <c r="X83" s="48">
         <v>390446646</v>
       </c>
-      <c r="Y83" s="58"/>
-      <c r="AA83" s="82"/>
-      <c r="AB83" s="82"/>
-      <c r="AC83" s="82"/>
-      <c r="AD83" s="82"/>
-      <c r="AE83" s="83"/>
+      <c r="Y83" s="109"/>
+      <c r="AA83" s="53"/>
+      <c r="AB83" s="53"/>
+      <c r="AC83" s="53"/>
+      <c r="AD83" s="53"/>
+      <c r="AE83" s="54"/>
     </row>
     <row r="84" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A84">
@@ -13473,61 +12433,60 @@
       <c r="C84" s="41">
         <v>60002</v>
       </c>
-      <c r="D84" s="69">
+      <c r="D84" s="48">
         <v>309401847</v>
       </c>
-      <c r="E84" s="70">
+      <c r="E84" s="49">
         <v>59996</v>
       </c>
-      <c r="F84" s="69">
+      <c r="F84" s="48">
         <v>346321215</v>
       </c>
-      <c r="G84" s="58"/>
-      <c r="H84" s="52"/>
+      <c r="G84" s="109"/>
       <c r="I84" s="41">
         <v>60005</v>
       </c>
-      <c r="J84" s="69">
+      <c r="J84" s="48">
         <v>287967671</v>
       </c>
-      <c r="K84" s="70">
+      <c r="K84" s="49">
         <v>60006</v>
       </c>
-      <c r="L84" s="69">
+      <c r="L84" s="48">
         <v>296754718</v>
       </c>
-      <c r="M84" s="58"/>
+      <c r="M84" s="109"/>
       <c r="O84" s="41">
         <v>62524</v>
       </c>
-      <c r="P84" s="69">
+      <c r="P84" s="48">
         <v>3647760394</v>
       </c>
-      <c r="Q84" s="70">
+      <c r="Q84" s="49">
         <v>61836</v>
       </c>
-      <c r="R84" s="69">
+      <c r="R84" s="48">
         <v>3525385895</v>
       </c>
-      <c r="S84" s="58"/>
+      <c r="S84" s="109"/>
       <c r="U84" s="41">
         <v>60006</v>
       </c>
-      <c r="V84" s="69">
+      <c r="V84" s="48">
         <v>396146717</v>
       </c>
-      <c r="W84" s="70">
+      <c r="W84" s="49">
         <v>60011</v>
       </c>
-      <c r="X84" s="69">
+      <c r="X84" s="48">
         <v>393003941</v>
       </c>
-      <c r="Y84" s="58"/>
-      <c r="AA84" s="82"/>
-      <c r="AB84" s="82"/>
-      <c r="AC84" s="82"/>
-      <c r="AD84" s="82"/>
-      <c r="AE84" s="83"/>
+      <c r="Y84" s="109"/>
+      <c r="AA84" s="53"/>
+      <c r="AB84" s="53"/>
+      <c r="AC84" s="53"/>
+      <c r="AD84" s="53"/>
+      <c r="AE84" s="54"/>
     </row>
     <row r="85" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A85">
@@ -13541,61 +12500,60 @@
       <c r="C85" s="41">
         <v>60003</v>
       </c>
-      <c r="D85" s="69">
+      <c r="D85" s="48">
         <v>310617273</v>
       </c>
-      <c r="E85" s="70">
+      <c r="E85" s="49">
         <v>60000</v>
       </c>
-      <c r="F85" s="69">
+      <c r="F85" s="48">
         <v>314801110</v>
       </c>
-      <c r="G85" s="58"/>
-      <c r="H85" s="52"/>
+      <c r="G85" s="109"/>
       <c r="I85" s="41">
         <v>60004</v>
       </c>
-      <c r="J85" s="69">
+      <c r="J85" s="48">
         <v>232321030</v>
       </c>
-      <c r="K85" s="70">
+      <c r="K85" s="49">
         <v>60002</v>
       </c>
-      <c r="L85" s="69">
+      <c r="L85" s="48">
         <v>222545458</v>
       </c>
-      <c r="M85" s="58"/>
+      <c r="M85" s="109"/>
       <c r="O85" s="41">
         <v>62357</v>
       </c>
-      <c r="P85" s="69">
+      <c r="P85" s="48">
         <v>3620995755</v>
       </c>
-      <c r="Q85" s="70">
+      <c r="Q85" s="49">
         <v>60997</v>
       </c>
-      <c r="R85" s="69">
+      <c r="R85" s="48">
         <v>3465074029</v>
       </c>
-      <c r="S85" s="58"/>
+      <c r="S85" s="109"/>
       <c r="U85" s="41">
         <v>60006</v>
       </c>
-      <c r="V85" s="69">
+      <c r="V85" s="48">
         <v>390081159</v>
       </c>
-      <c r="W85" s="70">
+      <c r="W85" s="49">
         <v>60002</v>
       </c>
-      <c r="X85" s="69">
+      <c r="X85" s="48">
         <v>422495281</v>
       </c>
-      <c r="Y85" s="58"/>
-      <c r="AA85" s="82"/>
-      <c r="AB85" s="82"/>
-      <c r="AC85" s="82"/>
-      <c r="AD85" s="82"/>
-      <c r="AE85" s="83"/>
+      <c r="Y85" s="109"/>
+      <c r="AA85" s="53"/>
+      <c r="AB85" s="53"/>
+      <c r="AC85" s="53"/>
+      <c r="AD85" s="53"/>
+      <c r="AE85" s="54"/>
     </row>
     <row r="86" spans="1:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A86">
@@ -13609,61 +12567,60 @@
       <c r="C86" s="42">
         <v>59999</v>
       </c>
-      <c r="D86" s="71">
+      <c r="D86" s="50">
         <v>330871232</v>
       </c>
-      <c r="E86" s="72">
+      <c r="E86" s="51">
         <v>59999</v>
       </c>
-      <c r="F86" s="71">
+      <c r="F86" s="50">
         <v>314437108</v>
       </c>
-      <c r="G86" s="59"/>
-      <c r="H86" s="52"/>
+      <c r="G86" s="110"/>
       <c r="I86" s="42">
         <v>60004</v>
       </c>
-      <c r="J86" s="71">
+      <c r="J86" s="50">
         <v>323841962</v>
       </c>
-      <c r="K86" s="72">
+      <c r="K86" s="51">
         <v>60003</v>
       </c>
-      <c r="L86" s="71">
+      <c r="L86" s="50">
         <v>226034426</v>
       </c>
-      <c r="M86" s="59"/>
+      <c r="M86" s="110"/>
       <c r="O86" s="42">
         <v>61614</v>
       </c>
-      <c r="P86" s="71">
+      <c r="P86" s="50">
         <v>3640754693</v>
       </c>
-      <c r="Q86" s="72">
+      <c r="Q86" s="51">
         <v>61274</v>
       </c>
-      <c r="R86" s="71">
+      <c r="R86" s="50">
         <v>3636844493</v>
       </c>
-      <c r="S86" s="59"/>
+      <c r="S86" s="110"/>
       <c r="U86" s="42">
         <v>60005</v>
       </c>
-      <c r="V86" s="71">
+      <c r="V86" s="50">
         <v>383071414</v>
       </c>
-      <c r="W86" s="72">
+      <c r="W86" s="51">
         <v>60002</v>
       </c>
-      <c r="X86" s="71">
+      <c r="X86" s="50">
         <v>427933387</v>
       </c>
-      <c r="Y86" s="59"/>
-      <c r="AA86" s="82"/>
-      <c r="AB86" s="82"/>
-      <c r="AC86" s="82"/>
-      <c r="AD86" s="82"/>
-      <c r="AE86" s="83"/>
+      <c r="Y86" s="110"/>
+      <c r="AA86" s="53"/>
+      <c r="AB86" s="53"/>
+      <c r="AC86" s="53"/>
+      <c r="AD86" s="53"/>
+      <c r="AE86" s="54"/>
     </row>
     <row r="87" spans="1:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A87">
@@ -13672,190 +12629,189 @@
       </c>
     </row>
     <row r="88" spans="1:43" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C88" s="60" t="s">
+      <c r="C88" s="99" t="s">
+        <v>23</v>
+      </c>
+      <c r="D88" s="100"/>
+      <c r="E88" s="100"/>
+      <c r="F88" s="101"/>
+      <c r="G88" s="102" t="s">
+        <v>21</v>
+      </c>
+      <c r="I88" s="99" t="s">
         <v>27</v>
       </c>
-      <c r="D88" s="61"/>
-      <c r="E88" s="61"/>
-      <c r="F88" s="62"/>
-      <c r="G88" s="76" t="s">
+      <c r="J88" s="100"/>
+      <c r="K88" s="100"/>
+      <c r="L88" s="101"/>
+      <c r="M88" s="111" t="s">
+        <v>21</v>
+      </c>
+      <c r="O88" s="99" t="s">
+        <v>30</v>
+      </c>
+      <c r="P88" s="100"/>
+      <c r="Q88" s="100"/>
+      <c r="R88" s="101"/>
+      <c r="S88" s="102" t="s">
+        <v>21</v>
+      </c>
+      <c r="U88" s="99" t="s">
         <v>25</v>
       </c>
-      <c r="I88" s="60" t="s">
-        <v>31</v>
-      </c>
-      <c r="J88" s="61"/>
-      <c r="K88" s="61"/>
-      <c r="L88" s="62"/>
-      <c r="M88" s="54" t="s">
-        <v>25</v>
-      </c>
-      <c r="O88" s="60" t="s">
-        <v>34</v>
-      </c>
-      <c r="P88" s="61"/>
-      <c r="Q88" s="61"/>
-      <c r="R88" s="62"/>
-      <c r="S88" s="76" t="s">
-        <v>25</v>
-      </c>
-      <c r="U88" s="60" t="s">
-        <v>29</v>
-      </c>
-      <c r="V88" s="61"/>
-      <c r="W88" s="61"/>
-      <c r="X88" s="62"/>
-      <c r="Y88" s="76" t="s">
-        <v>25</v>
+      <c r="V88" s="100"/>
+      <c r="W88" s="100"/>
+      <c r="X88" s="101"/>
+      <c r="Y88" s="102" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="89" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="C89" s="63" t="s">
-        <v>22</v>
-      </c>
-      <c r="D89" s="53"/>
-      <c r="E89" s="63" t="s">
-        <v>23</v>
-      </c>
-      <c r="F89" s="64"/>
-      <c r="G89" s="77"/>
-      <c r="I89" s="63" t="s">
-        <v>22</v>
-      </c>
-      <c r="J89" s="53"/>
-      <c r="K89" s="63" t="s">
-        <v>23</v>
-      </c>
-      <c r="L89" s="64"/>
-      <c r="M89" s="55"/>
-      <c r="O89" s="63" t="s">
-        <v>22</v>
-      </c>
-      <c r="P89" s="53"/>
-      <c r="Q89" s="63" t="s">
-        <v>23</v>
-      </c>
-      <c r="R89" s="64"/>
-      <c r="S89" s="77"/>
-      <c r="U89" s="63" t="s">
-        <v>22</v>
-      </c>
-      <c r="V89" s="53"/>
-      <c r="W89" s="63" t="s">
-        <v>23</v>
-      </c>
-      <c r="X89" s="64"/>
-      <c r="Y89" s="77"/>
+      <c r="C89" s="105" t="s">
+        <v>18</v>
+      </c>
+      <c r="D89" s="106"/>
+      <c r="E89" s="105" t="s">
+        <v>19</v>
+      </c>
+      <c r="F89" s="107"/>
+      <c r="G89" s="103"/>
+      <c r="I89" s="105" t="s">
+        <v>18</v>
+      </c>
+      <c r="J89" s="106"/>
+      <c r="K89" s="105" t="s">
+        <v>19</v>
+      </c>
+      <c r="L89" s="107"/>
+      <c r="M89" s="112"/>
+      <c r="O89" s="105" t="s">
+        <v>18</v>
+      </c>
+      <c r="P89" s="106"/>
+      <c r="Q89" s="105" t="s">
+        <v>19</v>
+      </c>
+      <c r="R89" s="107"/>
+      <c r="S89" s="103"/>
+      <c r="U89" s="105" t="s">
+        <v>18</v>
+      </c>
+      <c r="V89" s="106"/>
+      <c r="W89" s="105" t="s">
+        <v>19</v>
+      </c>
+      <c r="X89" s="107"/>
+      <c r="Y89" s="103"/>
     </row>
     <row r="90" spans="1:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C90" s="65" t="s">
-        <v>24</v>
-      </c>
-      <c r="D90" s="66" t="s">
-        <v>21</v>
-      </c>
-      <c r="E90" s="65" t="s">
-        <v>24</v>
-      </c>
-      <c r="F90" s="66" t="s">
-        <v>21</v>
-      </c>
-      <c r="G90" s="78"/>
-      <c r="I90" s="65" t="s">
-        <v>24</v>
-      </c>
-      <c r="J90" s="66" t="s">
-        <v>21</v>
-      </c>
-      <c r="K90" s="65" t="s">
-        <v>24</v>
-      </c>
-      <c r="L90" s="66" t="s">
-        <v>21</v>
-      </c>
-      <c r="M90" s="56"/>
-      <c r="O90" s="65" t="s">
-        <v>24</v>
-      </c>
-      <c r="P90" s="66" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q90" s="65" t="s">
-        <v>24</v>
-      </c>
-      <c r="R90" s="66" t="s">
-        <v>21</v>
-      </c>
-      <c r="S90" s="78"/>
-      <c r="U90" s="65" t="s">
-        <v>24</v>
-      </c>
-      <c r="V90" s="66" t="s">
-        <v>21</v>
-      </c>
-      <c r="W90" s="65" t="s">
-        <v>24</v>
-      </c>
-      <c r="X90" s="66" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y90" s="78"/>
+      <c r="C90" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="D90" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E90" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="F90" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="G90" s="104"/>
+      <c r="I90" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="J90" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="K90" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="L90" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="M90" s="113"/>
+      <c r="O90" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="P90" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q90" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="R90" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="S90" s="104"/>
+      <c r="U90" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="V90" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="W90" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="X90" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y90" s="104"/>
     </row>
     <row r="91" spans="1:43" x14ac:dyDescent="0.2">
       <c r="C91" s="43">
         <v>10003</v>
       </c>
-      <c r="D91" s="67">
+      <c r="D91" s="44">
         <v>63080958</v>
       </c>
-      <c r="E91" s="68">
+      <c r="E91" s="47">
         <v>10001</v>
       </c>
-      <c r="F91" s="67">
+      <c r="F91" s="44">
         <v>68908814</v>
       </c>
-      <c r="G91" s="57">
+      <c r="G91" s="108">
         <f>(AVERAGE(F91:F96)/AVERAGE(E91:E96)-AVERAGE(D91:D96)/AVERAGE(C91:C96))/(AVERAGE(F91:F96)/AVERAGE(E91:E96)) * 100</f>
         <v>5.5465523213110952</v>
       </c>
-      <c r="H91" s="52"/>
       <c r="I91" s="43">
         <v>10004</v>
       </c>
-      <c r="J91" s="67">
+      <c r="J91" s="44">
         <v>44866978</v>
       </c>
-      <c r="K91" s="68">
+      <c r="K91" s="47">
         <v>10002</v>
       </c>
-      <c r="L91" s="67">
+      <c r="L91" s="44">
         <v>49159146</v>
       </c>
-      <c r="M91" s="57">
+      <c r="M91" s="108">
         <f>(AVERAGE(L91:L96)/AVERAGE(K91:K96)-AVERAGE(J91:J96)/AVERAGE(I91:I96))/(AVERAGE(L91:L96)/AVERAGE(K91:K96)) * 100</f>
         <v>-2.4283935933225242</v>
       </c>
       <c r="O91" s="43">
         <v>60004</v>
       </c>
-      <c r="P91" s="67"/>
-      <c r="Q91" s="68">
+      <c r="P91" s="44"/>
+      <c r="Q91" s="47">
         <v>60006</v>
       </c>
-      <c r="R91" s="67"/>
-      <c r="S91" s="57" t="e">
+      <c r="R91" s="44"/>
+      <c r="S91" s="108" t="e">
         <f>(AVERAGE(R91:R96)/AVERAGE(Q91:Q96)-AVERAGE(P91:P96)/AVERAGE(O91:O96))/(AVERAGE(R91:R96)/AVERAGE(Q91:Q96)) * 100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="U91" s="43">
         <v>10003</v>
       </c>
-      <c r="V91" s="67"/>
-      <c r="W91" s="68">
+      <c r="V91" s="44"/>
+      <c r="W91" s="47">
         <v>10001</v>
       </c>
-      <c r="X91" s="67"/>
-      <c r="Y91" s="57" t="e">
+      <c r="X91" s="44"/>
+      <c r="Y91" s="108" t="e">
         <f>(AVERAGE(X91:X96)/AVERAGE(W91:W96)-AVERAGE(V91:V96)/AVERAGE(U91:U96))/(AVERAGE(X91:X96)/AVERAGE(W91:W96)) * 100</f>
         <v>#DIV/0!</v>
       </c>
@@ -13864,427 +12820,421 @@
       <c r="C92" s="41">
         <v>10004</v>
       </c>
-      <c r="D92" s="69">
+      <c r="D92" s="48">
         <v>54739679</v>
       </c>
-      <c r="E92" s="70">
+      <c r="E92" s="49">
         <v>10001</v>
       </c>
-      <c r="F92" s="69">
+      <c r="F92" s="48">
         <v>69495997</v>
       </c>
-      <c r="G92" s="58"/>
-      <c r="H92" s="52"/>
+      <c r="G92" s="109"/>
       <c r="I92" s="41">
         <v>10001</v>
       </c>
-      <c r="J92" s="69">
+      <c r="J92" s="48">
         <v>45783013</v>
       </c>
-      <c r="K92" s="70">
+      <c r="K92" s="49">
         <v>10001</v>
       </c>
-      <c r="L92" s="69">
+      <c r="L92" s="48">
         <v>46171858</v>
       </c>
-      <c r="M92" s="58"/>
+      <c r="M92" s="109"/>
       <c r="O92" s="41">
         <v>60004</v>
       </c>
-      <c r="P92" s="69"/>
-      <c r="Q92" s="70">
+      <c r="P92" s="48"/>
+      <c r="Q92" s="49">
         <v>60006</v>
       </c>
-      <c r="R92" s="69"/>
-      <c r="S92" s="58"/>
+      <c r="R92" s="48"/>
+      <c r="S92" s="109"/>
       <c r="U92" s="41">
         <v>10004</v>
       </c>
-      <c r="V92" s="69"/>
-      <c r="W92" s="70">
+      <c r="V92" s="48"/>
+      <c r="W92" s="49">
         <v>10001</v>
       </c>
-      <c r="X92" s="69"/>
-      <c r="Y92" s="58"/>
+      <c r="X92" s="48"/>
+      <c r="Y92" s="109"/>
     </row>
     <row r="93" spans="1:43" x14ac:dyDescent="0.2">
       <c r="C93" s="41">
         <v>10003</v>
       </c>
-      <c r="D93" s="69">
+      <c r="D93" s="48">
         <v>64114953</v>
       </c>
-      <c r="E93" s="70">
+      <c r="E93" s="49">
         <v>10002</v>
       </c>
-      <c r="F93" s="69">
+      <c r="F93" s="48">
         <v>69390426</v>
       </c>
-      <c r="G93" s="58"/>
-      <c r="H93" s="52"/>
+      <c r="G93" s="109"/>
       <c r="I93" s="41">
         <v>10002</v>
       </c>
-      <c r="J93" s="69">
+      <c r="J93" s="48">
         <v>43165575</v>
       </c>
-      <c r="K93" s="70">
+      <c r="K93" s="49">
         <v>10003</v>
       </c>
-      <c r="L93" s="69">
+      <c r="L93" s="48">
         <v>53295713</v>
       </c>
-      <c r="M93" s="58"/>
+      <c r="M93" s="109"/>
       <c r="O93" s="41">
         <v>60006</v>
       </c>
-      <c r="P93" s="69"/>
-      <c r="Q93" s="70">
+      <c r="P93" s="48"/>
+      <c r="Q93" s="49">
         <v>60005</v>
       </c>
-      <c r="R93" s="69"/>
-      <c r="S93" s="58"/>
+      <c r="R93" s="48"/>
+      <c r="S93" s="109"/>
       <c r="U93" s="41">
         <v>10003</v>
       </c>
-      <c r="V93" s="69"/>
-      <c r="W93" s="70">
+      <c r="V93" s="48"/>
+      <c r="W93" s="49">
         <v>10002</v>
       </c>
-      <c r="X93" s="69"/>
-      <c r="Y93" s="58"/>
+      <c r="X93" s="48"/>
+      <c r="Y93" s="109"/>
     </row>
     <row r="94" spans="1:43" x14ac:dyDescent="0.2">
       <c r="C94" s="41">
         <v>10002</v>
       </c>
-      <c r="D94" s="69">
+      <c r="D94" s="48">
         <v>62918875</v>
       </c>
-      <c r="E94" s="70">
+      <c r="E94" s="49">
         <v>10003</v>
       </c>
-      <c r="F94" s="69">
+      <c r="F94" s="48">
         <v>62655390</v>
       </c>
-      <c r="G94" s="58"/>
-      <c r="H94" s="52"/>
+      <c r="G94" s="109"/>
       <c r="I94" s="41">
         <v>10002</v>
       </c>
-      <c r="J94" s="69">
+      <c r="J94" s="48">
         <v>47591362</v>
       </c>
-      <c r="K94" s="70">
+      <c r="K94" s="49">
         <v>10004</v>
       </c>
-      <c r="L94" s="69">
+      <c r="L94" s="48">
         <v>36394300</v>
       </c>
-      <c r="M94" s="58"/>
+      <c r="M94" s="109"/>
       <c r="O94" s="41">
         <v>60005</v>
       </c>
-      <c r="P94" s="69"/>
-      <c r="Q94" s="70">
+      <c r="P94" s="48"/>
+      <c r="Q94" s="49">
         <v>60006</v>
       </c>
-      <c r="R94" s="69"/>
-      <c r="S94" s="58"/>
+      <c r="R94" s="48"/>
+      <c r="S94" s="109"/>
       <c r="U94" s="41">
         <v>10002</v>
       </c>
-      <c r="V94" s="69"/>
-      <c r="W94" s="70">
+      <c r="V94" s="48"/>
+      <c r="W94" s="49">
         <v>10003</v>
       </c>
-      <c r="X94" s="69"/>
-      <c r="Y94" s="58"/>
+      <c r="X94" s="48"/>
+      <c r="Y94" s="109"/>
     </row>
     <row r="95" spans="1:43" x14ac:dyDescent="0.2">
       <c r="C95" s="41">
         <v>10004</v>
       </c>
-      <c r="D95" s="69">
+      <c r="D95" s="48">
         <v>63503433</v>
       </c>
-      <c r="E95" s="70">
+      <c r="E95" s="49">
         <v>10002</v>
       </c>
-      <c r="F95" s="69">
+      <c r="F95" s="48">
         <v>66474021</v>
       </c>
-      <c r="G95" s="58"/>
-      <c r="H95" s="52"/>
+      <c r="G95" s="109"/>
       <c r="I95" s="41">
         <v>10002</v>
       </c>
-      <c r="J95" s="69">
+      <c r="J95" s="48">
         <v>46906360</v>
       </c>
-      <c r="K95" s="70">
+      <c r="K95" s="49">
         <v>10003</v>
       </c>
-      <c r="L95" s="69">
+      <c r="L95" s="48">
         <v>40487732</v>
       </c>
-      <c r="M95" s="58"/>
+      <c r="M95" s="109"/>
       <c r="O95" s="41">
         <v>60004</v>
       </c>
-      <c r="P95" s="69"/>
-      <c r="Q95" s="70">
+      <c r="P95" s="48"/>
+      <c r="Q95" s="49">
         <v>60002</v>
       </c>
-      <c r="R95" s="69"/>
-      <c r="S95" s="58"/>
+      <c r="R95" s="48"/>
+      <c r="S95" s="109"/>
       <c r="U95" s="41">
         <v>10004</v>
       </c>
-      <c r="V95" s="69"/>
-      <c r="W95" s="70">
+      <c r="V95" s="48"/>
+      <c r="W95" s="49">
         <v>10002</v>
       </c>
-      <c r="X95" s="69"/>
-      <c r="Y95" s="58"/>
+      <c r="X95" s="48"/>
+      <c r="Y95" s="109"/>
     </row>
     <row r="96" spans="1:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C96" s="42">
         <v>10001</v>
       </c>
-      <c r="D96" s="71">
+      <c r="D96" s="50">
         <v>68939295</v>
       </c>
-      <c r="E96" s="72">
+      <c r="E96" s="51">
         <v>10000</v>
       </c>
-      <c r="F96" s="71">
+      <c r="F96" s="50">
         <v>62475173</v>
       </c>
-      <c r="G96" s="59"/>
-      <c r="H96" s="52"/>
+      <c r="G96" s="110"/>
       <c r="I96" s="42">
         <v>10002</v>
       </c>
-      <c r="J96" s="71">
+      <c r="J96" s="50">
         <v>38906632</v>
       </c>
-      <c r="K96" s="72">
+      <c r="K96" s="51">
         <v>10002</v>
       </c>
-      <c r="L96" s="71">
+      <c r="L96" s="50">
         <v>35384560</v>
       </c>
-      <c r="M96" s="59"/>
+      <c r="M96" s="110"/>
       <c r="O96" s="42">
         <v>60004</v>
       </c>
-      <c r="P96" s="71"/>
-      <c r="Q96" s="72">
+      <c r="P96" s="50"/>
+      <c r="Q96" s="51">
         <v>60003</v>
       </c>
-      <c r="R96" s="71"/>
-      <c r="S96" s="59"/>
+      <c r="R96" s="50"/>
+      <c r="S96" s="110"/>
       <c r="U96" s="42">
         <v>10001</v>
       </c>
-      <c r="V96" s="71"/>
-      <c r="W96" s="72">
+      <c r="V96" s="50"/>
+      <c r="W96" s="51">
         <v>10000</v>
       </c>
-      <c r="X96" s="71"/>
-      <c r="Y96" s="59"/>
+      <c r="X96" s="50"/>
+      <c r="Y96" s="110"/>
     </row>
     <row r="97" spans="3:25" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="98" spans="3:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C98" s="60" t="s">
+      <c r="C98" s="99" t="s">
+        <v>24</v>
+      </c>
+      <c r="D98" s="100"/>
+      <c r="E98" s="100"/>
+      <c r="F98" s="101"/>
+      <c r="G98" s="102" t="s">
+        <v>21</v>
+      </c>
+      <c r="I98" s="99" t="s">
         <v>28</v>
       </c>
-      <c r="D98" s="61"/>
-      <c r="E98" s="61"/>
-      <c r="F98" s="62"/>
-      <c r="G98" s="76" t="s">
-        <v>25</v>
-      </c>
-      <c r="I98" s="60" t="s">
-        <v>32</v>
-      </c>
-      <c r="J98" s="61"/>
-      <c r="K98" s="61"/>
-      <c r="L98" s="62"/>
-      <c r="M98" s="54" t="s">
-        <v>25</v>
-      </c>
-      <c r="O98" s="60" t="s">
-        <v>34</v>
-      </c>
-      <c r="P98" s="61"/>
-      <c r="Q98" s="61"/>
-      <c r="R98" s="62"/>
-      <c r="S98" s="76" t="s">
-        <v>25</v>
-      </c>
-      <c r="U98" s="60" t="s">
-        <v>28</v>
-      </c>
-      <c r="V98" s="61"/>
-      <c r="W98" s="61"/>
-      <c r="X98" s="62"/>
-      <c r="Y98" s="76" t="s">
-        <v>25</v>
+      <c r="J98" s="100"/>
+      <c r="K98" s="100"/>
+      <c r="L98" s="101"/>
+      <c r="M98" s="111" t="s">
+        <v>21</v>
+      </c>
+      <c r="O98" s="99" t="s">
+        <v>30</v>
+      </c>
+      <c r="P98" s="100"/>
+      <c r="Q98" s="100"/>
+      <c r="R98" s="101"/>
+      <c r="S98" s="102" t="s">
+        <v>21</v>
+      </c>
+      <c r="U98" s="99" t="s">
+        <v>24</v>
+      </c>
+      <c r="V98" s="100"/>
+      <c r="W98" s="100"/>
+      <c r="X98" s="101"/>
+      <c r="Y98" s="102" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="99" spans="3:25" x14ac:dyDescent="0.2">
-      <c r="C99" s="63" t="s">
-        <v>22</v>
-      </c>
-      <c r="D99" s="53"/>
-      <c r="E99" s="63" t="s">
-        <v>23</v>
-      </c>
-      <c r="F99" s="64"/>
-      <c r="G99" s="77"/>
-      <c r="I99" s="63" t="s">
-        <v>22</v>
-      </c>
-      <c r="J99" s="53"/>
-      <c r="K99" s="63" t="s">
-        <v>23</v>
-      </c>
-      <c r="L99" s="64"/>
-      <c r="M99" s="55"/>
-      <c r="O99" s="63" t="s">
-        <v>22</v>
-      </c>
-      <c r="P99" s="53"/>
-      <c r="Q99" s="63" t="s">
-        <v>23</v>
-      </c>
-      <c r="R99" s="64"/>
-      <c r="S99" s="77"/>
-      <c r="U99" s="63" t="s">
-        <v>22</v>
-      </c>
-      <c r="V99" s="53"/>
-      <c r="W99" s="63" t="s">
-        <v>23</v>
-      </c>
-      <c r="X99" s="64"/>
-      <c r="Y99" s="77"/>
+      <c r="C99" s="105" t="s">
+        <v>18</v>
+      </c>
+      <c r="D99" s="106"/>
+      <c r="E99" s="105" t="s">
+        <v>19</v>
+      </c>
+      <c r="F99" s="107"/>
+      <c r="G99" s="103"/>
+      <c r="I99" s="105" t="s">
+        <v>18</v>
+      </c>
+      <c r="J99" s="106"/>
+      <c r="K99" s="105" t="s">
+        <v>19</v>
+      </c>
+      <c r="L99" s="107"/>
+      <c r="M99" s="112"/>
+      <c r="O99" s="105" t="s">
+        <v>18</v>
+      </c>
+      <c r="P99" s="106"/>
+      <c r="Q99" s="105" t="s">
+        <v>19</v>
+      </c>
+      <c r="R99" s="107"/>
+      <c r="S99" s="103"/>
+      <c r="U99" s="105" t="s">
+        <v>18</v>
+      </c>
+      <c r="V99" s="106"/>
+      <c r="W99" s="105" t="s">
+        <v>19</v>
+      </c>
+      <c r="X99" s="107"/>
+      <c r="Y99" s="103"/>
     </row>
     <row r="100" spans="3:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C100" s="65" t="s">
-        <v>24</v>
-      </c>
-      <c r="D100" s="66" t="s">
-        <v>21</v>
-      </c>
-      <c r="E100" s="65" t="s">
-        <v>24</v>
-      </c>
-      <c r="F100" s="66" t="s">
-        <v>21</v>
-      </c>
-      <c r="G100" s="78"/>
-      <c r="I100" s="65" t="s">
-        <v>24</v>
-      </c>
-      <c r="J100" s="66" t="s">
-        <v>21</v>
-      </c>
-      <c r="K100" s="65" t="s">
-        <v>24</v>
-      </c>
-      <c r="L100" s="66" t="s">
-        <v>21</v>
-      </c>
-      <c r="M100" s="56"/>
-      <c r="O100" s="65" t="s">
-        <v>24</v>
-      </c>
-      <c r="P100" s="66" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q100" s="65" t="s">
-        <v>24</v>
-      </c>
-      <c r="R100" s="66" t="s">
-        <v>21</v>
-      </c>
-      <c r="S100" s="78"/>
-      <c r="U100" s="65" t="s">
-        <v>24</v>
-      </c>
-      <c r="V100" s="66" t="s">
-        <v>21</v>
-      </c>
-      <c r="W100" s="65" t="s">
-        <v>24</v>
-      </c>
-      <c r="X100" s="66" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y100" s="78"/>
+      <c r="C100" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="D100" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E100" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="F100" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="G100" s="104"/>
+      <c r="I100" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="J100" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="K100" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="L100" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="M100" s="113"/>
+      <c r="O100" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="P100" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q100" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="R100" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="S100" s="104"/>
+      <c r="U100" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="V100" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="W100" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="X100" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y100" s="104"/>
     </row>
     <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="43">
         <v>30004</v>
       </c>
-      <c r="D101" s="67">
+      <c r="D101" s="44">
         <v>207052978</v>
       </c>
-      <c r="E101" s="68">
+      <c r="E101" s="47">
         <v>30003</v>
       </c>
-      <c r="F101" s="67">
+      <c r="F101" s="44">
         <v>202359959</v>
       </c>
-      <c r="G101" s="57">
+      <c r="G101" s="108">
         <f>(AVERAGE(F101:F106)/AVERAGE(E101:E106)-AVERAGE(D101:D106)/AVERAGE(C101:C106))/(AVERAGE(F101:F106)/AVERAGE(E101:E106)) * 100</f>
         <v>5.3173503627160335</v>
       </c>
-      <c r="H101" s="52"/>
       <c r="I101" s="43">
         <v>30005</v>
       </c>
-      <c r="J101" s="67">
+      <c r="J101" s="44">
         <v>139125260</v>
       </c>
-      <c r="K101" s="68">
+      <c r="K101" s="47">
         <v>30001</v>
       </c>
-      <c r="L101" s="67">
+      <c r="L101" s="44">
         <v>143674325</v>
       </c>
-      <c r="M101" s="73">
+      <c r="M101" s="114">
         <f>(AVERAGE(L101:L106)/AVERAGE(K101:K106)-AVERAGE(J101:J106)/AVERAGE(I101:I106))/(AVERAGE(L101:L106)/AVERAGE(K101:K106)) * 100</f>
         <v>-1.4659939900413741</v>
       </c>
       <c r="O101" s="43">
         <v>60004</v>
       </c>
-      <c r="P101" s="67"/>
-      <c r="Q101" s="68">
+      <c r="P101" s="44"/>
+      <c r="Q101" s="47">
         <v>60006</v>
       </c>
-      <c r="R101" s="67"/>
-      <c r="S101" s="57" t="e">
+      <c r="R101" s="44"/>
+      <c r="S101" s="108" t="e">
         <f>(AVERAGE(R101:R106)/AVERAGE(Q101:Q106)-AVERAGE(P101:P106)/AVERAGE(O101:O106))/(AVERAGE(R101:R106)/AVERAGE(Q101:Q106)) * 100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="U101" s="43">
         <v>30005</v>
       </c>
-      <c r="V101" s="67">
+      <c r="V101" s="44">
         <v>241398046</v>
       </c>
-      <c r="W101" s="68">
+      <c r="W101" s="47">
         <v>30005</v>
       </c>
-      <c r="X101" s="67">
+      <c r="X101" s="44">
         <v>225891917</v>
       </c>
-      <c r="Y101" s="57">
+      <c r="Y101" s="108">
         <f>(AVERAGE(X101:X106)/AVERAGE(W101:W106)-AVERAGE(V101:V106)/AVERAGE(U101:U106))/(AVERAGE(X101:X106)/AVERAGE(W101:W106)) * 100</f>
         <v>0.59915401956837822</v>
       </c>
@@ -14293,259 +13243,262 @@
       <c r="C102" s="41">
         <v>30002</v>
       </c>
-      <c r="D102" s="69">
+      <c r="D102" s="48">
         <v>188923437</v>
       </c>
-      <c r="E102" s="70">
+      <c r="E102" s="49">
         <v>30002</v>
       </c>
-      <c r="F102" s="69">
+      <c r="F102" s="48">
         <v>202518187</v>
       </c>
-      <c r="G102" s="58"/>
-      <c r="H102" s="52"/>
+      <c r="G102" s="109"/>
       <c r="I102" s="41">
         <v>30003</v>
       </c>
-      <c r="J102" s="69">
+      <c r="J102" s="48">
         <v>130587920</v>
       </c>
-      <c r="K102" s="70">
+      <c r="K102" s="49">
         <v>29999</v>
       </c>
-      <c r="L102" s="69">
+      <c r="L102" s="48">
         <v>119949115</v>
       </c>
-      <c r="M102" s="74"/>
+      <c r="M102" s="115"/>
       <c r="O102" s="41">
         <v>60004</v>
       </c>
-      <c r="P102" s="69"/>
-      <c r="Q102" s="70">
+      <c r="P102" s="48"/>
+      <c r="Q102" s="49">
         <v>60006</v>
       </c>
-      <c r="R102" s="69"/>
-      <c r="S102" s="58"/>
+      <c r="R102" s="48"/>
+      <c r="S102" s="109"/>
       <c r="U102" s="41">
         <v>30002</v>
       </c>
-      <c r="V102" s="69">
+      <c r="V102" s="48">
         <v>216870705</v>
       </c>
-      <c r="W102" s="70">
+      <c r="W102" s="49">
         <v>30001</v>
       </c>
-      <c r="X102" s="69">
+      <c r="X102" s="48">
         <v>225672973</v>
       </c>
-      <c r="Y102" s="58"/>
+      <c r="Y102" s="109"/>
     </row>
     <row r="103" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C103" s="41">
         <v>30005</v>
       </c>
-      <c r="D103" s="69">
+      <c r="D103" s="48">
         <v>171714334</v>
       </c>
-      <c r="E103" s="70">
+      <c r="E103" s="49">
         <v>30003</v>
       </c>
-      <c r="F103" s="69">
+      <c r="F103" s="48">
         <v>200073733</v>
       </c>
-      <c r="G103" s="58"/>
-      <c r="H103" s="52"/>
+      <c r="G103" s="109"/>
       <c r="I103" s="41">
         <v>30006</v>
       </c>
-      <c r="J103" s="69">
+      <c r="J103" s="48">
         <v>93243956</v>
       </c>
-      <c r="K103" s="70">
+      <c r="K103" s="49">
         <v>29995</v>
       </c>
-      <c r="L103" s="69">
+      <c r="L103" s="48">
         <v>139750320</v>
       </c>
-      <c r="M103" s="74"/>
+      <c r="M103" s="115"/>
       <c r="O103" s="41">
         <v>60006</v>
       </c>
-      <c r="P103" s="69"/>
-      <c r="Q103" s="70">
+      <c r="P103" s="48"/>
+      <c r="Q103" s="49">
         <v>60005</v>
       </c>
-      <c r="R103" s="69"/>
-      <c r="S103" s="58"/>
+      <c r="R103" s="48"/>
+      <c r="S103" s="109"/>
       <c r="U103" s="41">
         <v>30004</v>
       </c>
-      <c r="V103" s="69">
+      <c r="V103" s="48">
         <v>215163099</v>
       </c>
-      <c r="W103" s="70">
+      <c r="W103" s="49">
         <v>30004</v>
       </c>
-      <c r="X103" s="69">
+      <c r="X103" s="48">
         <v>226571867</v>
       </c>
-      <c r="Y103" s="58"/>
+      <c r="Y103" s="109"/>
     </row>
     <row r="104" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C104" s="41">
         <v>30002</v>
       </c>
-      <c r="D104" s="69">
+      <c r="D104" s="48">
         <v>192696892</v>
       </c>
-      <c r="E104" s="70">
+      <c r="E104" s="49">
         <v>30004</v>
       </c>
-      <c r="F104" s="69">
+      <c r="F104" s="48">
         <v>215637622</v>
       </c>
-      <c r="G104" s="58"/>
-      <c r="H104" s="52"/>
+      <c r="G104" s="109"/>
       <c r="I104" s="41">
         <v>30002</v>
       </c>
-      <c r="J104" s="69">
+      <c r="J104" s="48">
         <v>130919592</v>
       </c>
-      <c r="K104" s="70">
+      <c r="K104" s="49">
         <v>30000</v>
       </c>
-      <c r="L104" s="69">
+      <c r="L104" s="48">
         <v>144810018</v>
       </c>
-      <c r="M104" s="74"/>
+      <c r="M104" s="115"/>
       <c r="O104" s="41">
         <v>60005</v>
       </c>
-      <c r="P104" s="69"/>
-      <c r="Q104" s="70">
+      <c r="P104" s="48"/>
+      <c r="Q104" s="49">
         <v>60006</v>
       </c>
-      <c r="R104" s="69"/>
-      <c r="S104" s="58"/>
+      <c r="R104" s="48"/>
+      <c r="S104" s="109"/>
       <c r="U104" s="41">
         <v>30004</v>
       </c>
-      <c r="V104" s="69">
+      <c r="V104" s="48">
         <v>223634724</v>
       </c>
-      <c r="W104" s="70">
+      <c r="W104" s="49">
         <v>30003</v>
       </c>
-      <c r="X104" s="69">
+      <c r="X104" s="48">
         <v>223282320</v>
       </c>
-      <c r="Y104" s="58"/>
+      <c r="Y104" s="109"/>
     </row>
     <row r="105" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C105" s="41">
         <v>30005</v>
       </c>
-      <c r="D105" s="69">
+      <c r="D105" s="48">
         <v>203634206</v>
       </c>
-      <c r="E105" s="70">
+      <c r="E105" s="49">
         <v>30001</v>
       </c>
-      <c r="F105" s="69">
+      <c r="F105" s="48">
         <v>198994822</v>
       </c>
-      <c r="G105" s="58"/>
-      <c r="H105" s="52"/>
+      <c r="G105" s="109"/>
       <c r="I105" s="41">
         <v>30003</v>
       </c>
-      <c r="J105" s="69">
+      <c r="J105" s="48">
         <v>144018883</v>
       </c>
-      <c r="K105" s="70">
+      <c r="K105" s="49">
         <v>30001</v>
       </c>
-      <c r="L105" s="69">
+      <c r="L105" s="48">
         <v>119253756</v>
       </c>
-      <c r="M105" s="74"/>
+      <c r="M105" s="115"/>
       <c r="O105" s="41">
         <v>60004</v>
       </c>
-      <c r="P105" s="69"/>
-      <c r="Q105" s="70">
+      <c r="P105" s="48"/>
+      <c r="Q105" s="49">
         <v>60002</v>
       </c>
-      <c r="R105" s="69"/>
-      <c r="S105" s="58"/>
+      <c r="R105" s="48"/>
+      <c r="S105" s="109"/>
       <c r="U105" s="41">
         <v>30003</v>
       </c>
-      <c r="V105" s="69">
+      <c r="V105" s="48">
         <v>222783811</v>
       </c>
-      <c r="W105" s="70">
+      <c r="W105" s="49">
         <v>30005</v>
       </c>
-      <c r="X105" s="69">
+      <c r="X105" s="48">
         <v>221252259</v>
       </c>
-      <c r="Y105" s="58"/>
+      <c r="Y105" s="109"/>
     </row>
     <row r="106" spans="3:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C106" s="42">
         <v>30001</v>
       </c>
-      <c r="D106" s="71">
+      <c r="D106" s="50">
         <v>189718731</v>
       </c>
-      <c r="E106" s="72">
+      <c r="E106" s="51">
         <v>30005</v>
       </c>
-      <c r="F106" s="71">
+      <c r="F106" s="50">
         <v>198943225</v>
       </c>
-      <c r="G106" s="59"/>
-      <c r="H106" s="52"/>
+      <c r="G106" s="110"/>
       <c r="I106" s="42">
         <v>30003</v>
       </c>
-      <c r="J106" s="71">
+      <c r="J106" s="50">
         <v>164605961</v>
       </c>
-      <c r="K106" s="72">
+      <c r="K106" s="51">
         <v>30008</v>
       </c>
-      <c r="L106" s="71">
+      <c r="L106" s="50">
         <v>123390309</v>
       </c>
-      <c r="M106" s="75"/>
+      <c r="M106" s="116"/>
       <c r="O106" s="42">
         <v>60004</v>
       </c>
-      <c r="P106" s="71"/>
-      <c r="Q106" s="72">
+      <c r="P106" s="50"/>
+      <c r="Q106" s="51">
         <v>60003</v>
       </c>
-      <c r="R106" s="71"/>
-      <c r="S106" s="59"/>
+      <c r="R106" s="50"/>
+      <c r="S106" s="110"/>
       <c r="U106" s="42">
         <v>30004</v>
       </c>
-      <c r="V106" s="71">
+      <c r="V106" s="50">
         <v>221323760</v>
       </c>
-      <c r="W106" s="72">
+      <c r="W106" s="51">
         <v>30010</v>
       </c>
-      <c r="X106" s="71">
+      <c r="X106" s="50">
         <v>226631914</v>
       </c>
-      <c r="Y106" s="59"/>
+      <c r="Y106" s="110"/>
     </row>
   </sheetData>
   <mergeCells count="173">
+    <mergeCell ref="AA78:AD78"/>
+    <mergeCell ref="AA79:AB79"/>
+    <mergeCell ref="AC79:AD79"/>
+    <mergeCell ref="O78:R78"/>
+    <mergeCell ref="S78:S80"/>
+    <mergeCell ref="O79:P79"/>
+    <mergeCell ref="Q79:R79"/>
+    <mergeCell ref="S81:S86"/>
     <mergeCell ref="Y101:Y106"/>
     <mergeCell ref="U88:X88"/>
     <mergeCell ref="Y88:Y90"/>
@@ -14556,28 +13509,16 @@
     <mergeCell ref="Y98:Y100"/>
     <mergeCell ref="U99:V99"/>
     <mergeCell ref="W99:X99"/>
+    <mergeCell ref="S91:S96"/>
+    <mergeCell ref="O98:R98"/>
+    <mergeCell ref="S98:S100"/>
+    <mergeCell ref="O99:P99"/>
+    <mergeCell ref="Q99:R99"/>
     <mergeCell ref="U78:X78"/>
     <mergeCell ref="Y78:Y80"/>
     <mergeCell ref="U79:V79"/>
     <mergeCell ref="W79:X79"/>
     <mergeCell ref="Y81:Y86"/>
-    <mergeCell ref="AA78:AD78"/>
-    <mergeCell ref="AA79:AB79"/>
-    <mergeCell ref="AC79:AD79"/>
-    <mergeCell ref="O78:R78"/>
-    <mergeCell ref="S78:S80"/>
-    <mergeCell ref="O79:P79"/>
-    <mergeCell ref="Q79:R79"/>
-    <mergeCell ref="S81:S86"/>
-    <mergeCell ref="O88:R88"/>
-    <mergeCell ref="S88:S90"/>
-    <mergeCell ref="O89:P89"/>
-    <mergeCell ref="Q89:R89"/>
-    <mergeCell ref="S91:S96"/>
-    <mergeCell ref="O98:R98"/>
-    <mergeCell ref="S98:S100"/>
-    <mergeCell ref="O99:P99"/>
-    <mergeCell ref="Q99:R99"/>
     <mergeCell ref="S101:S106"/>
     <mergeCell ref="G101:G106"/>
     <mergeCell ref="I78:L78"/>
@@ -14598,6 +13539,10 @@
     <mergeCell ref="G91:G96"/>
     <mergeCell ref="G78:G80"/>
     <mergeCell ref="G88:G90"/>
+    <mergeCell ref="O88:R88"/>
+    <mergeCell ref="S88:S90"/>
+    <mergeCell ref="O89:P89"/>
+    <mergeCell ref="Q89:R89"/>
     <mergeCell ref="C98:F98"/>
     <mergeCell ref="G98:G100"/>
     <mergeCell ref="C99:D99"/>
